--- a/res.xlsx
+++ b/res.xlsx
@@ -10,7 +10,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -375,3042 +379,6718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:Q346"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>第1组名单--------------------- 21人</v>
+      <c r="G1">
+        <v>2018</v>
+      </c>
+      <c r="L1">
+        <v>2017</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>徐余</v>
-      </c>
-      <c r="B2">
-        <v>15930</v>
+        <v>序号</v>
+      </c>
+      <c r="B2" t="str">
+        <v>员工 ID</v>
       </c>
       <c r="C2" t="str">
-        <v>男</v>
+        <v>姓名</v>
       </c>
       <c r="D2" t="str">
-        <v>运营部</v>
+        <v>HRD</v>
+      </c>
+      <c r="E2" t="str">
+        <v>HRM</v>
+      </c>
+      <c r="F2" t="str">
+        <v xml:space="preserve">HRBP </v>
+      </c>
+      <c r="G2" t="str">
+        <v>团队激励9.12</v>
+      </c>
+      <c r="H2" t="str">
+        <v>问题分析与解决8月和11月</v>
+      </c>
+      <c r="I2" t="str">
+        <v>员工成长与发展沙龙11月和12月（11.15、12.13、12.20）</v>
+      </c>
+      <c r="J2" t="str">
+        <v>情境领导力6月和12月</v>
+      </c>
+      <c r="K2" t="str">
+        <v>管理沙盘5月和8月</v>
+      </c>
+      <c r="L2" t="str">
+        <v>员工成长与发展</v>
+      </c>
+      <c r="M2" t="str">
+        <v>团队激励</v>
+      </c>
+      <c r="N2" t="str">
+        <v>跨部门</v>
+      </c>
+      <c r="O2" t="str">
+        <v>向上管理</v>
+      </c>
+      <c r="P2" t="str">
+        <v>问题分析与解决</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>伯乐选才</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>宋宇婷</v>
+      <c r="A3">
+        <v>422</v>
       </c>
       <c r="B3">
-        <v>15922</v>
+        <v>301</v>
       </c>
       <c r="C3" t="str">
-        <v>女</v>
-      </c>
-      <c r="D3" t="str">
-        <v>运营部</v>
+        <v>钟金辉</v>
+      </c>
+      <c r="M3" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>张婉玉</v>
+      <c r="A4">
+        <v>588</v>
       </c>
       <c r="B4">
-        <v>15808</v>
+        <v>1113</v>
       </c>
       <c r="C4" t="str">
-        <v>女</v>
-      </c>
-      <c r="D4" t="str">
-        <v>运营部</v>
+        <v>孟勇</v>
+      </c>
+      <c r="N4" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O4" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>刘勇</v>
-      </c>
       <c r="B5">
-        <v>15788</v>
+        <v>1828</v>
       </c>
       <c r="C5" t="str">
-        <v>男</v>
+        <v>邵磊</v>
       </c>
       <c r="D5" t="str">
-        <v>运营部</v>
+        <v>乔乔</v>
+      </c>
+      <c r="E5" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F5" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="G5" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="I5" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+      <c r="K5" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="L5" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="N5" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P5" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>王云鹤</v>
+      <c r="A6">
+        <v>420</v>
       </c>
       <c r="B6">
-        <v>15737</v>
+        <v>1866</v>
       </c>
       <c r="C6" t="str">
-        <v>女</v>
-      </c>
-      <c r="D6" t="str">
-        <v>运营部</v>
+        <v>金英</v>
+      </c>
+      <c r="M6" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>李善顺</v>
+      <c r="A7">
+        <v>410</v>
       </c>
       <c r="B7">
-        <v>15928</v>
+        <v>1976</v>
       </c>
       <c r="C7" t="str">
-        <v>男</v>
-      </c>
-      <c r="D7" t="str">
-        <v>运营部</v>
+        <v>曹玉梅</v>
+      </c>
+      <c r="M7" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>李永</v>
-      </c>
       <c r="B8">
-        <v>15903</v>
+        <v>1977</v>
       </c>
       <c r="C8" t="str">
-        <v>男</v>
-      </c>
-      <c r="D8" t="str">
-        <v>研发部</v>
+        <v>雷蕾</v>
+      </c>
+      <c r="N8" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O8" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>尹文巧</v>
+      <c r="A9">
+        <v>605</v>
       </c>
       <c r="B9">
-        <v>15900</v>
+        <v>2104</v>
       </c>
       <c r="C9" t="str">
-        <v>女</v>
+        <v>陈晨</v>
       </c>
       <c r="D9" t="str">
-        <v>研发部</v>
+        <v>乔乔</v>
+      </c>
+      <c r="E9" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F9" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="G9" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="K9" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="M9" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="O9" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P9" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>田长连</v>
+      <c r="A10">
+        <v>435</v>
       </c>
       <c r="B10">
-        <v>15895</v>
+        <v>2105</v>
       </c>
       <c r="C10" t="str">
-        <v>男</v>
-      </c>
-      <c r="D10" t="str">
-        <v>研发部</v>
+        <v>李卫华</v>
+      </c>
+      <c r="M10" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>安邦</v>
+      <c r="A11">
+        <v>454</v>
       </c>
       <c r="B11">
-        <v>15892</v>
+        <v>2127</v>
       </c>
       <c r="C11" t="str">
-        <v>男</v>
-      </c>
-      <c r="D11" t="str">
-        <v>研发部</v>
+        <v>罗杰</v>
+      </c>
+      <c r="M11" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>杜文华</v>
+      <c r="A12">
+        <v>672</v>
       </c>
       <c r="B12">
-        <v>15855</v>
+        <v>2155</v>
       </c>
       <c r="C12" t="str">
-        <v>女</v>
-      </c>
-      <c r="D12" t="str">
-        <v>研发部</v>
+        <v>何佳</v>
+      </c>
+      <c r="P12" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>刘爱花</v>
+      <c r="A13">
+        <v>515</v>
       </c>
       <c r="B13">
-        <v>15801</v>
+        <v>2216</v>
       </c>
       <c r="C13" t="str">
-        <v>女</v>
-      </c>
-      <c r="D13" t="str">
-        <v>研发部</v>
+        <v>王彩虹</v>
+      </c>
+      <c r="L13" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="M13" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="O13" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>张宝军</v>
+      <c r="A14">
+        <v>630</v>
       </c>
       <c r="B14">
-        <v>15787</v>
+        <v>2401</v>
       </c>
       <c r="C14" t="str">
-        <v>男</v>
-      </c>
-      <c r="D14" t="str">
-        <v>研发部</v>
+        <v>栾欣</v>
+      </c>
+      <c r="N14" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>叶新伟</v>
-      </c>
       <c r="B15">
-        <v>15757</v>
+        <v>2456</v>
       </c>
       <c r="C15" t="str">
-        <v>男</v>
-      </c>
-      <c r="D15" t="str">
-        <v>研发部</v>
+        <v>刘红文</v>
+      </c>
+      <c r="M15" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="N15" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>苗正</v>
+      <c r="A16">
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>15746</v>
+        <v>2574</v>
       </c>
       <c r="C16" t="str">
-        <v>男</v>
+        <v>朱建平</v>
       </c>
       <c r="D16" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E16" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F16" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="H16" t="str">
+        <v>11月参加</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>莫非</v>
+      <c r="A17">
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>15902</v>
+        <v>2620</v>
       </c>
       <c r="C17" t="str">
-        <v>男</v>
+        <v>康宇</v>
       </c>
       <c r="D17" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E17" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F17" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="H17" t="str">
+        <v>8月参加</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>李位方</v>
+      <c r="A18">
+        <v>162</v>
       </c>
       <c r="B18">
-        <v>15885</v>
+        <v>2796</v>
       </c>
       <c r="C18" t="str">
-        <v>男</v>
+        <v>唐敏</v>
       </c>
       <c r="D18" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E18" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F18" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="H18" t="str">
+        <v>8月参加</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>张彬</v>
+      <c r="A19">
+        <v>329</v>
       </c>
       <c r="B19">
-        <v>15875</v>
+        <v>2802</v>
       </c>
       <c r="C19" t="str">
-        <v>男</v>
+        <v>董生</v>
       </c>
       <c r="D19" t="str">
-        <v>研发部</v>
+        <v>许广</v>
+      </c>
+      <c r="E19" t="str">
+        <v>许广</v>
+      </c>
+      <c r="F19" t="str">
+        <v>张秀玲</v>
+      </c>
+      <c r="I19" t="str">
+        <v>参加第二期，第三期</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>赵传宾</v>
+      <c r="A20">
+        <v>356</v>
       </c>
       <c r="B20">
-        <v>15866</v>
+        <v>2866</v>
       </c>
       <c r="C20" t="str">
-        <v>男</v>
-      </c>
-      <c r="D20" t="str">
-        <v>研发部</v>
+        <v>郑春生</v>
+      </c>
+      <c r="L20" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>姜克静</v>
+      <c r="A21">
+        <v>591</v>
       </c>
       <c r="B21">
-        <v>15844</v>
+        <v>2873</v>
       </c>
       <c r="C21" t="str">
-        <v>女</v>
-      </c>
-      <c r="D21" t="str">
-        <v/>
+        <v>姜艳华</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>余双</v>
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>3188</v>
       </c>
       <c r="C22" t="str">
-        <v>男</v>
+        <v>贾妍</v>
+      </c>
+      <c r="D22" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E22" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F22" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="G22" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H22" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I22" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="J22" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>第2组名单--------------------- 21人</v>
+      <c r="B23">
+        <v>3198</v>
+      </c>
+      <c r="C23" t="str">
+        <v>刘婷</v>
+      </c>
+      <c r="L23" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="M23" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>白锦旭</v>
-      </c>
       <c r="B24">
-        <v>15784</v>
+        <v>3364</v>
       </c>
       <c r="C24" t="str">
-        <v>女</v>
-      </c>
-      <c r="D24" t="str">
-        <v>运营部</v>
+        <v>张琳</v>
+      </c>
+      <c r="M24" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="N24" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>吴梓函</v>
+      <c r="A25">
+        <v>568</v>
       </c>
       <c r="B25">
-        <v>15771</v>
+        <v>3575</v>
       </c>
       <c r="C25" t="str">
-        <v>男</v>
-      </c>
-      <c r="D25" t="str">
-        <v>运营部</v>
+        <v>杨振</v>
+      </c>
+      <c r="P25" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>王萌</v>
+      <c r="A26">
+        <v>519</v>
       </c>
       <c r="B26">
-        <v>15937</v>
+        <v>3608</v>
       </c>
       <c r="C26" t="str">
-        <v>女</v>
-      </c>
-      <c r="D26" t="str">
-        <v>运营部</v>
+        <v>杨可</v>
+      </c>
+      <c r="O26" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>董静</v>
+      <c r="A27">
+        <v>590</v>
       </c>
       <c r="B27">
-        <v>15913</v>
+        <v>3761</v>
       </c>
       <c r="C27" t="str">
-        <v>女</v>
-      </c>
-      <c r="D27" t="str">
-        <v>运营部</v>
+        <v>侍启娥</v>
+      </c>
+      <c r="L27" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O27" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>柴博</v>
-      </c>
       <c r="B28">
-        <v>15935</v>
+        <v>3779</v>
       </c>
       <c r="C28" t="str">
-        <v>男</v>
-      </c>
-      <c r="D28" t="str">
-        <v>运营部</v>
+        <v>马根蕾</v>
+      </c>
+      <c r="O28" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P28" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>杨长发</v>
+      <c r="A29">
+        <v>245</v>
       </c>
       <c r="B29">
-        <v>15910</v>
+        <v>3792</v>
       </c>
       <c r="C29" t="str">
-        <v>男</v>
+        <v>钟凯利</v>
       </c>
       <c r="D29" t="str">
-        <v>运营部</v>
+        <v>许广</v>
+      </c>
+      <c r="E29" t="str">
+        <v>许广</v>
+      </c>
+      <c r="F29" t="str">
+        <v>张秀玲</v>
+      </c>
+      <c r="K29" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>彭超毅</v>
-      </c>
       <c r="B30">
-        <v>15896</v>
+        <v>3820</v>
       </c>
       <c r="C30" t="str">
-        <v>男</v>
-      </c>
-      <c r="D30" t="str">
-        <v>研发部</v>
+        <v>李梁</v>
+      </c>
+      <c r="M30" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O30" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>王成</v>
-      </c>
       <c r="B31">
-        <v>15882</v>
+        <v>3849</v>
       </c>
       <c r="C31" t="str">
-        <v>男</v>
-      </c>
-      <c r="D31" t="str">
-        <v>研发部</v>
+        <v>黄艳波</v>
+      </c>
+      <c r="L31" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="M31" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>周佩生</v>
+      <c r="A32">
+        <v>624</v>
       </c>
       <c r="B32">
-        <v>15790</v>
+        <v>3857</v>
       </c>
       <c r="C32" t="str">
-        <v>男</v>
-      </c>
-      <c r="D32" t="str">
-        <v>研发部</v>
+        <v>豆峥伟</v>
+      </c>
+      <c r="N32" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>温晶</v>
+      <c r="A33">
+        <v>631</v>
       </c>
       <c r="B33">
-        <v>15944</v>
+        <v>3935</v>
       </c>
       <c r="C33" t="str">
-        <v>女</v>
-      </c>
-      <c r="D33" t="str">
-        <v>研发部</v>
+        <v>王宇</v>
+      </c>
+      <c r="N33" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>孙佳佳</v>
+      <c r="A34">
+        <v>490</v>
       </c>
       <c r="B34">
-        <v>15729</v>
+        <v>4255</v>
       </c>
       <c r="C34" t="str">
-        <v>男</v>
-      </c>
-      <c r="D34" t="str">
-        <v>研发部</v>
+        <v>张琳</v>
+      </c>
+      <c r="N34" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
-        <v>杨居上</v>
+      <c r="A35">
+        <v>432</v>
       </c>
       <c r="B35">
-        <v>15884</v>
+        <v>4438</v>
       </c>
       <c r="C35" t="str">
-        <v>男</v>
-      </c>
-      <c r="D35" t="str">
-        <v>研发部</v>
+        <v>刘昊</v>
+      </c>
+      <c r="M35" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>张芹芹</v>
+      <c r="A36">
+        <v>667</v>
       </c>
       <c r="B36">
-        <v>15879</v>
+        <v>4483</v>
       </c>
       <c r="C36" t="str">
-        <v>女</v>
-      </c>
-      <c r="D36" t="str">
-        <v>研发部</v>
+        <v>姜贵彬</v>
+      </c>
+      <c r="P36" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>李欢欢</v>
+      <c r="A37">
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>15868</v>
+        <v>4556</v>
       </c>
       <c r="C37" t="str">
-        <v>女</v>
+        <v>慈元龙</v>
       </c>
       <c r="D37" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E37" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F37" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="G37" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="J37" t="str">
+        <v>6月参加</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
-        <v>肖文杰</v>
+      <c r="A38">
+        <v>423</v>
       </c>
       <c r="B38">
-        <v>15945</v>
+        <v>4808</v>
       </c>
       <c r="C38" t="str">
-        <v>男</v>
-      </c>
-      <c r="D38" t="str">
-        <v>研发部</v>
+        <v>朱欢</v>
+      </c>
+      <c r="M38" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>张国军</v>
+      <c r="A39">
+        <v>660</v>
       </c>
       <c r="B39">
-        <v>15843</v>
+        <v>4882</v>
       </c>
       <c r="C39" t="str">
-        <v>男</v>
-      </c>
-      <c r="D39" t="str">
-        <v>研发部</v>
+        <v>杨祎</v>
+      </c>
+      <c r="P39" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>张玉保</v>
-      </c>
       <c r="B40">
-        <v>15828</v>
+        <v>4923</v>
       </c>
       <c r="C40" t="str">
-        <v>男</v>
+        <v>李涛</v>
       </c>
       <c r="D40" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E40" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F40" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="G40" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="K40" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="P40" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
-        <v>孙龙</v>
-      </c>
       <c r="B41">
-        <v>15820</v>
+        <v>5046</v>
       </c>
       <c r="C41" t="str">
-        <v>男</v>
-      </c>
-      <c r="D41" t="str">
-        <v>研发部</v>
+        <v>朱滢莹</v>
+      </c>
+      <c r="O41" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P41" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
-        <v>冯润朋</v>
+      <c r="A42">
+        <v>492</v>
       </c>
       <c r="B42">
-        <v>15810</v>
+        <v>5061</v>
       </c>
       <c r="C42" t="str">
-        <v>男</v>
-      </c>
-      <c r="D42" t="str">
-        <v>研发部</v>
+        <v>王志超</v>
+      </c>
+      <c r="N42" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
-        <v>李晓莉</v>
-      </c>
       <c r="B43">
-        <v>15917</v>
+        <v>5142</v>
       </c>
       <c r="C43" t="str">
-        <v>女</v>
+        <v>李世海</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>张珏</v>
+      </c>
+      <c r="E43" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F43" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="J43" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K43" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="M43" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O43" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P43" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
-        <v>徐杰</v>
-      </c>
       <c r="B44">
-        <v>15791</v>
+        <v>5182</v>
       </c>
       <c r="C44" t="str">
-        <v>男</v>
-      </c>
-      <c r="D44" t="str">
-        <v>研发部</v>
+        <v>任钟</v>
+      </c>
+      <c r="L44" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M44" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
-        <v>第3组名单--------------------- 21人</v>
+      <c r="A45">
+        <v>345</v>
+      </c>
+      <c r="B45">
+        <v>5241</v>
+      </c>
+      <c r="C45" t="str">
+        <v>牛俊杰</v>
+      </c>
+      <c r="L45" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
-        <v>孙东</v>
-      </c>
       <c r="B46">
-        <v>15796</v>
+        <v>5369</v>
       </c>
       <c r="C46" t="str">
-        <v>男</v>
+        <v>余晓晴</v>
       </c>
       <c r="D46" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E46" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F46" t="str">
+        <v>陈晖</v>
+      </c>
+      <c r="H46" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="J46" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K46" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
-        <v>戎梦琪</v>
+      <c r="A47">
+        <v>486</v>
       </c>
       <c r="B47">
-        <v>15931</v>
+        <v>5426</v>
       </c>
       <c r="C47" t="str">
-        <v>女</v>
-      </c>
-      <c r="D47" t="str">
-        <v>运营部</v>
+        <v>杨焱鑫</v>
+      </c>
+      <c r="L47" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M47" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="N47" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
-        <v>王璇</v>
-      </c>
       <c r="B48">
-        <v>15883</v>
+        <v>5464</v>
       </c>
       <c r="C48" t="str">
-        <v>女</v>
-      </c>
-      <c r="D48" t="str">
-        <v>运营部</v>
+        <v>陈红姣</v>
+      </c>
+      <c r="L48" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P48" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
-        <v>刘阳</v>
+      <c r="A49">
+        <v>418</v>
       </c>
       <c r="B49">
-        <v>15743</v>
+        <v>5572</v>
       </c>
       <c r="C49" t="str">
-        <v>女</v>
-      </c>
-      <c r="D49" t="str">
-        <v>运营部</v>
+        <v>孟庆文</v>
+      </c>
+      <c r="M49" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
-        <v>裴江林</v>
-      </c>
       <c r="B50">
-        <v>15904</v>
+        <v>5644</v>
       </c>
       <c r="C50" t="str">
-        <v>男</v>
-      </c>
-      <c r="D50" t="str">
-        <v>运营部</v>
+        <v>刘春安</v>
+      </c>
+      <c r="L50" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M50" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>秦浩</v>
-      </c>
       <c r="B51">
-        <v>15845</v>
+        <v>5687</v>
       </c>
       <c r="C51" t="str">
-        <v>男</v>
+        <v>肖鹏</v>
       </c>
       <c r="D51" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E51" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F51" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="G51" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="L51" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
-        <v>孔祥栋</v>
-      </c>
       <c r="B52">
-        <v>15946</v>
+        <v>5734</v>
       </c>
       <c r="C52" t="str">
-        <v>男</v>
+        <v>肖宜芬</v>
       </c>
       <c r="D52" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E52" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F52" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="G52" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="N52" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O52" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P52" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
-        <v>米宏</v>
-      </c>
       <c r="B53">
-        <v>15755</v>
+        <v>5762</v>
       </c>
       <c r="C53" t="str">
-        <v>男</v>
-      </c>
-      <c r="D53" t="str">
-        <v>研发部</v>
+        <v>张少华</v>
+      </c>
+      <c r="O53" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P53" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
-        <v>钱咏</v>
+      <c r="A54">
+        <v>483</v>
       </c>
       <c r="B54">
-        <v>15874</v>
+        <v>5835</v>
       </c>
       <c r="C54" t="str">
-        <v>女</v>
-      </c>
-      <c r="D54" t="str">
-        <v>研发部</v>
+        <v>肖琼</v>
+      </c>
+      <c r="N54" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
-        <v>牛雪娜</v>
+      <c r="A55">
+        <v>505</v>
       </c>
       <c r="B55">
-        <v>15858</v>
+        <v>5848</v>
       </c>
       <c r="C55" t="str">
-        <v>女</v>
-      </c>
-      <c r="D55" t="str">
-        <v>研发部</v>
+        <v>刘琛</v>
+      </c>
+      <c r="O55" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
-        <v>唐丽欣</v>
+      <c r="A56">
+        <v>632</v>
       </c>
       <c r="B56">
-        <v>15842</v>
+        <v>5890</v>
       </c>
       <c r="C56" t="str">
-        <v>女</v>
-      </c>
-      <c r="D56" t="str">
-        <v>研发部</v>
+        <v>毛涛涛</v>
+      </c>
+      <c r="N56" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
-        <v>沙艳波</v>
+      <c r="A57">
+        <v>628</v>
       </c>
       <c r="B57">
-        <v>15825</v>
+        <v>5894</v>
       </c>
       <c r="C57" t="str">
-        <v>男</v>
-      </c>
-      <c r="D57" t="str">
-        <v>研发部</v>
+        <v>张娟</v>
+      </c>
+      <c r="N57" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
-        <v>赵晓坡</v>
+      <c r="A58">
+        <v>633</v>
       </c>
       <c r="B58">
-        <v>15803</v>
+        <v>5936</v>
       </c>
       <c r="C58" t="str">
-        <v>男</v>
-      </c>
-      <c r="D58" t="str">
-        <v>研发部</v>
+        <v>安彦姣</v>
+      </c>
+      <c r="N58" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
-        <v>谢佳铭</v>
+      <c r="A59">
+        <v>89</v>
       </c>
       <c r="B59">
-        <v>15776</v>
+        <v>6039</v>
       </c>
       <c r="C59" t="str">
-        <v>男</v>
+        <v>伏圣国</v>
       </c>
       <c r="D59" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E59" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F59" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="K59" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
-        <v>张俊迪</v>
+      <c r="A60">
+        <v>507</v>
       </c>
       <c r="B60">
-        <v>15941</v>
+        <v>6193</v>
       </c>
       <c r="C60" t="str">
-        <v>男</v>
-      </c>
-      <c r="D60" t="str">
-        <v>研发部</v>
+        <v>刘扬</v>
+      </c>
+      <c r="O60" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
-        <v>李鉴达</v>
+      <c r="A61">
+        <v>604</v>
       </c>
       <c r="B61">
-        <v>15826</v>
+        <v>6231</v>
       </c>
       <c r="C61" t="str">
-        <v>男</v>
-      </c>
-      <c r="D61" t="str">
-        <v>研发部</v>
+        <v>白坤娟</v>
+      </c>
+      <c r="L61" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="N61" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P61" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
-        <v>刘国旭</v>
-      </c>
       <c r="B62">
-        <v>15817</v>
+        <v>6324</v>
       </c>
       <c r="C62" t="str">
-        <v>男</v>
-      </c>
-      <c r="D62" t="str">
-        <v>研发部</v>
+        <v>孙娟娟</v>
+      </c>
+      <c r="O62" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P62" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
-        <v>吴双洋</v>
+      <c r="A63">
+        <v>357</v>
       </c>
       <c r="B63">
-        <v>15811</v>
+        <v>6431</v>
       </c>
       <c r="C63" t="str">
-        <v>男</v>
-      </c>
-      <c r="D63" t="str">
-        <v>研发部</v>
+        <v>吕付家</v>
+      </c>
+      <c r="L63" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
-        <v>陈俊龙</v>
+      <c r="A64">
+        <v>338</v>
       </c>
       <c r="B64">
-        <v>15765</v>
+        <v>6505</v>
       </c>
       <c r="C64" t="str">
-        <v>男</v>
-      </c>
-      <c r="D64" t="str">
-        <v>研发部</v>
+        <v>李池明</v>
+      </c>
+      <c r="L64" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
-        <v>王月月</v>
+      <c r="A65">
+        <v>470</v>
       </c>
       <c r="B65">
-        <v>15736</v>
+        <v>6513</v>
       </c>
       <c r="C65" t="str">
-        <v>女</v>
-      </c>
-      <c r="D65" t="str">
-        <v/>
+        <v>聂彦超</v>
+      </c>
+      <c r="N65" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
-        <v>郜艳超</v>
+      <c r="A66">
+        <v>634</v>
       </c>
       <c r="B66">
-        <v>15836</v>
+        <v>6768</v>
       </c>
       <c r="C66" t="str">
-        <v>女</v>
-      </c>
-      <c r="D66" t="str">
-        <v>研发部</v>
+        <v>曹一丞</v>
+      </c>
+      <c r="N66" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
-        <v>第4组名单--------------------- 21人</v>
+      <c r="A67">
+        <v>87</v>
+      </c>
+      <c r="B67">
+        <v>6973</v>
+      </c>
+      <c r="C67" t="str">
+        <v>黄波</v>
+      </c>
+      <c r="D67" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E67" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F67" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="G67" t="str">
+        <v>9月参加</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
-        <v>王明英</v>
-      </c>
       <c r="B68">
-        <v>15948</v>
+        <v>7200</v>
       </c>
       <c r="C68" t="str">
-        <v>女</v>
-      </c>
-      <c r="D68" t="str">
-        <v>运营部</v>
+        <v>胡丽麟</v>
+      </c>
+      <c r="P68" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
-        <v>胡丹</v>
-      </c>
       <c r="B69">
-        <v>15915</v>
+        <v>7253</v>
       </c>
       <c r="C69" t="str">
-        <v>女</v>
-      </c>
-      <c r="D69" t="str">
-        <v>运营部</v>
+        <v>赵一凡</v>
+      </c>
+      <c r="M69" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="N69" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
-        <v>马莹莹</v>
+      <c r="A70">
+        <v>377</v>
       </c>
       <c r="B70">
-        <v>15886</v>
+        <v>7348</v>
       </c>
       <c r="C70" t="str">
-        <v>女</v>
-      </c>
-      <c r="D70" t="str">
-        <v>运营部</v>
+        <v>唐敏之</v>
+      </c>
+      <c r="L70" t="str">
+        <v>参加6月期</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
-        <v>康照宇</v>
+      <c r="A71">
+        <v>289</v>
       </c>
       <c r="B71">
-        <v>15818</v>
+        <v>7393</v>
       </c>
       <c r="C71" t="str">
-        <v>男</v>
+        <v>吕竞博</v>
       </c>
       <c r="D71" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E71" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F71" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="I71" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="J71" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
-        <v>李翼辰</v>
+      <c r="A72">
+        <v>403</v>
       </c>
       <c r="B72">
-        <v>15749</v>
+        <v>7414</v>
       </c>
       <c r="C72" t="str">
-        <v>男</v>
-      </c>
-      <c r="D72" t="str">
-        <v>运营部</v>
+        <v>赵鑫</v>
+      </c>
+      <c r="L72" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
-        <v>柯俊</v>
+      <c r="A73">
+        <v>671</v>
       </c>
       <c r="B73">
-        <v>15821</v>
+        <v>7515</v>
       </c>
       <c r="C73" t="str">
-        <v>男</v>
-      </c>
-      <c r="D73" t="str">
-        <v>运营部</v>
+        <v>赵倩</v>
+      </c>
+      <c r="P73" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
-        <v>王占分</v>
+      <c r="A74">
+        <v>270</v>
       </c>
       <c r="B74">
-        <v>15812</v>
+        <v>7717</v>
       </c>
       <c r="C74" t="str">
-        <v>男</v>
+        <v>王红伟</v>
       </c>
       <c r="D74" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E74" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F74" t="str">
+        <v>陈晖</v>
+      </c>
+      <c r="H74" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I74" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+      <c r="J74" t="str">
+        <v>12月参加</v>
+      </c>
+      <c r="K74" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
-        <v>崔连保</v>
+      <c r="A75">
+        <v>599</v>
       </c>
       <c r="B75">
-        <v>15860</v>
+        <v>7726</v>
       </c>
       <c r="C75" t="str">
-        <v>男</v>
-      </c>
-      <c r="D75" t="str">
-        <v>研发部</v>
+        <v>赵晶</v>
+      </c>
+      <c r="N75" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O75" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
-        <v>侯春艳</v>
+      <c r="A76">
+        <v>328</v>
       </c>
       <c r="B76">
-        <v>15854</v>
+        <v>7820</v>
       </c>
       <c r="C76" t="str">
-        <v>女</v>
+        <v>马欣</v>
       </c>
       <c r="D76" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E76" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="F76" t="str">
+        <v>文宁宁</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
-        <v>逄晓敏</v>
+      <c r="A77">
+        <v>485</v>
       </c>
       <c r="B77">
-        <v>15814</v>
+        <v>7847</v>
       </c>
       <c r="C77" t="str">
-        <v>女</v>
-      </c>
-      <c r="D77" t="str">
-        <v>研发部</v>
+        <v>马嫣然</v>
+      </c>
+      <c r="N77" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
-        <v>朱晨</v>
+      <c r="A78">
+        <v>663</v>
       </c>
       <c r="B78">
-        <v>15793</v>
+        <v>7853</v>
       </c>
       <c r="C78" t="str">
-        <v>女</v>
-      </c>
-      <c r="D78" t="str">
-        <v>研发部</v>
+        <v>温雅</v>
+      </c>
+      <c r="P78" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
-        <v>王蕾蕾</v>
+      <c r="A79">
+        <v>313</v>
       </c>
       <c r="B79">
-        <v>15774</v>
+        <v>7871</v>
       </c>
       <c r="C79" t="str">
-        <v>男</v>
+        <v>殷婷婷</v>
       </c>
       <c r="D79" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E79" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F79" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="I79" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
-        <v>武富强</v>
+      <c r="A80">
+        <v>367</v>
       </c>
       <c r="B80">
-        <v>15833</v>
+        <v>7935</v>
       </c>
       <c r="C80" t="str">
-        <v>男</v>
-      </c>
-      <c r="D80" t="str">
-        <v>研发部</v>
+        <v>郭兵</v>
+      </c>
+      <c r="L80" t="str">
+        <v>参加6月期</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
-        <v>成志勇</v>
-      </c>
       <c r="B81">
-        <v>15815</v>
+        <v>7993</v>
       </c>
       <c r="C81" t="str">
-        <v>男</v>
-      </c>
-      <c r="D81" t="str">
-        <v>研发部</v>
+        <v>胡鸿飞</v>
+      </c>
+      <c r="L81" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P81" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
-        <v>魏浩亮</v>
+      <c r="A82">
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>15728</v>
+        <v>8128</v>
       </c>
       <c r="C82" t="str">
-        <v>男</v>
+        <v>张侃</v>
       </c>
       <c r="D82" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E82" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F82" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="H82" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="J82" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K82" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
-        <v>王德红</v>
+      <c r="A83">
+        <v>326</v>
       </c>
       <c r="B83">
-        <v>15905</v>
+        <v>8192</v>
       </c>
       <c r="C83" t="str">
-        <v>男</v>
+        <v>张婧贤</v>
       </c>
       <c r="D83" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E83" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F83" t="str">
+        <v>王迪</v>
+      </c>
+      <c r="I83" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="J83" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
-        <v>熊赣</v>
+      <c r="A84">
+        <v>390</v>
       </c>
       <c r="B84">
-        <v>15897</v>
+        <v>8332</v>
       </c>
       <c r="C84" t="str">
-        <v>男</v>
-      </c>
-      <c r="D84" t="str">
-        <v>研发部</v>
+        <v>齐丹</v>
+      </c>
+      <c r="L84" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
-        <v>张冰</v>
+      <c r="A85">
+        <v>248</v>
       </c>
       <c r="B85">
-        <v>15880</v>
+        <v>8333</v>
       </c>
       <c r="C85" t="str">
-        <v>男</v>
+        <v>迟珀</v>
       </c>
       <c r="D85" t="str">
-        <v>研发部</v>
+        <v>许广</v>
+      </c>
+      <c r="E85" t="str">
+        <v>许广</v>
+      </c>
+      <c r="F85" t="str">
+        <v>张秀玲</v>
+      </c>
+      <c r="K85" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
-        <v>张超</v>
-      </c>
       <c r="B86">
-        <v>15835</v>
+        <v>8412</v>
       </c>
       <c r="C86" t="str">
-        <v>男</v>
-      </c>
-      <c r="D86" t="str">
-        <v>研发部</v>
+        <v>李国平</v>
+      </c>
+      <c r="L86" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
-        <v>张璐璐</v>
+      <c r="A87">
+        <v>203</v>
       </c>
       <c r="B87">
-        <v>15891</v>
+        <v>8589</v>
       </c>
       <c r="C87" t="str">
-        <v>女</v>
+        <v>李巧智</v>
+      </c>
+      <c r="D87" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E87" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F87" t="str">
+        <v>赵丽欣</v>
+      </c>
+      <c r="K87" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
-        <v>冯丙见</v>
+      <c r="A88">
+        <v>535</v>
       </c>
       <c r="B88">
-        <v>15850</v>
+        <v>8662</v>
       </c>
       <c r="C88" t="str">
-        <v>男</v>
-      </c>
-      <c r="D88" t="str">
-        <v>研发部</v>
+        <v>戴倡</v>
+      </c>
+      <c r="O88" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
-        <v>第5组名单--------------------- 21人</v>
+      <c r="B89">
+        <v>8779</v>
+      </c>
+      <c r="C89" t="str">
+        <v>张秀玲</v>
+      </c>
+      <c r="L89" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="N89" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
-        <v>罗婧</v>
+      <c r="A90">
+        <v>50</v>
       </c>
       <c r="B90">
-        <v>15807</v>
+        <v>8816</v>
       </c>
       <c r="C90" t="str">
-        <v>女</v>
+        <v>刘静文</v>
       </c>
       <c r="D90" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E90" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F90" t="str">
+        <v>赵丽欣</v>
+      </c>
+      <c r="G90" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H90" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I90" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="J90" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K90" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
-        <v>徐菁菁</v>
+      <c r="A91">
+        <v>659</v>
       </c>
       <c r="B91">
-        <v>15857</v>
+        <v>8837</v>
       </c>
       <c r="C91" t="str">
-        <v>女</v>
-      </c>
-      <c r="D91" t="str">
-        <v>运营部</v>
+        <v>郭飞</v>
+      </c>
+      <c r="P91" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="str">
-        <v>于涛</v>
-      </c>
       <c r="B92">
-        <v>15798</v>
+        <v>8839</v>
       </c>
       <c r="C92" t="str">
-        <v>女</v>
-      </c>
-      <c r="D92" t="str">
-        <v>运营部</v>
+        <v>马小琴</v>
+      </c>
+      <c r="N92" t="str">
+        <v>渠道7月定制</v>
+      </c>
+      <c r="O92" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
-        <v>孟飞</v>
+      <c r="A93">
+        <v>526</v>
       </c>
       <c r="B93">
-        <v>15816</v>
+        <v>8945</v>
       </c>
       <c r="C93" t="str">
-        <v>男</v>
+        <v>韩晔</v>
       </c>
       <c r="D93" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E93" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F93" t="str">
+        <v>魏宽</v>
+      </c>
+      <c r="H93" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="K93" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="L93" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O93" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
-        <v>赵帅</v>
+      <c r="A94">
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>15934</v>
+        <v>8980</v>
       </c>
       <c r="C94" t="str">
-        <v>男</v>
+        <v>肖鹏</v>
       </c>
       <c r="D94" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E94" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F94" t="str">
+        <v>王迪</v>
+      </c>
+      <c r="J94" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
-        <v>陈超伟</v>
+      <c r="A95">
+        <v>613</v>
       </c>
       <c r="B95">
-        <v>15938</v>
+        <v>9119</v>
       </c>
       <c r="C95" t="str">
-        <v>男</v>
-      </c>
-      <c r="D95" t="str">
-        <v>运营部</v>
+        <v>李婷</v>
+      </c>
+      <c r="P95" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
-        <v>闫磊</v>
+      <c r="A96">
+        <v>619</v>
       </c>
       <c r="B96">
-        <v>15887</v>
+        <v>9177</v>
       </c>
       <c r="C96" t="str">
-        <v>男</v>
-      </c>
-      <c r="D96" t="str">
-        <v>研发部</v>
+        <v>张迪</v>
+      </c>
+      <c r="P96" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
-        <v>李田</v>
+      <c r="A97">
+        <v>570</v>
       </c>
       <c r="B97">
-        <v>15806</v>
+        <v>9244</v>
       </c>
       <c r="C97" t="str">
-        <v>女</v>
-      </c>
-      <c r="D97" t="str">
-        <v>研发部</v>
+        <v>岳才勇</v>
+      </c>
+      <c r="P97" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
-        <v>徐艳习</v>
-      </c>
       <c r="B98">
-        <v>15773</v>
+        <v>9337</v>
       </c>
       <c r="C98" t="str">
-        <v>女</v>
-      </c>
-      <c r="D98" t="str">
-        <v>研发部</v>
+        <v>李玉刚</v>
+      </c>
+      <c r="O98" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P98" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
-        <v>朱慧敏</v>
+      <c r="A99">
+        <v>416</v>
       </c>
       <c r="B99">
-        <v>15764</v>
+        <v>9405</v>
       </c>
       <c r="C99" t="str">
-        <v>女</v>
-      </c>
-      <c r="D99" t="str">
-        <v>研发部</v>
+        <v>姚四芳</v>
+      </c>
+      <c r="M99" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
-        <v>佟堃</v>
-      </c>
       <c r="B100">
-        <v>15781</v>
+        <v>9540</v>
       </c>
       <c r="C100" t="str">
-        <v>男</v>
-      </c>
-      <c r="D100" t="str">
-        <v>研发部</v>
+        <v>郭莉</v>
+      </c>
+      <c r="L100" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P100" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
-        <v>邓海军</v>
+      <c r="A101">
+        <v>183</v>
       </c>
       <c r="B101">
-        <v>15894</v>
+        <v>9557</v>
       </c>
       <c r="C101" t="str">
-        <v>男</v>
+        <v>井竞</v>
       </c>
       <c r="D101" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E101" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F101" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="G101" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="K101" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
-        <v>彭松</v>
+      <c r="A102">
+        <v>250</v>
       </c>
       <c r="B102">
-        <v>15829</v>
+        <v>9690</v>
       </c>
       <c r="C102" t="str">
-        <v>男</v>
+        <v>扈玲娟</v>
       </c>
       <c r="D102" t="str">
-        <v>研发部</v>
+        <v>许广</v>
+      </c>
+      <c r="E102" t="str">
+        <v>许广</v>
+      </c>
+      <c r="F102" t="str">
+        <v>张秀玲</v>
+      </c>
+      <c r="K102" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
-        <v>熊天</v>
+      <c r="A103">
+        <v>39</v>
       </c>
       <c r="B103">
-        <v>15813</v>
+        <v>9717</v>
       </c>
       <c r="C103" t="str">
-        <v>男</v>
+        <v>刘敬</v>
       </c>
       <c r="D103" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E103" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F103" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="J103" t="str">
+        <v>6月参加</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
-        <v>王辉</v>
+      <c r="A104">
+        <v>312</v>
       </c>
       <c r="B104">
-        <v>15797</v>
+        <v>9731</v>
       </c>
       <c r="C104" t="str">
-        <v>男</v>
+        <v>周轶</v>
       </c>
       <c r="D104" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E104" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F104" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="I104" t="str">
+        <v>参加第一期，第三期</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
-        <v>李卫国</v>
+      <c r="A105">
+        <v>49</v>
       </c>
       <c r="B105">
-        <v>15780</v>
+        <v>9766</v>
       </c>
       <c r="C105" t="str">
-        <v>男</v>
+        <v>蓝晓斌</v>
       </c>
       <c r="D105" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E105" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F105" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="G105" t="str">
+        <v>9月参加</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
-        <v>张涛</v>
+      <c r="A106">
+        <v>669</v>
       </c>
       <c r="B106">
-        <v>15778</v>
+        <v>9843</v>
       </c>
       <c r="C106" t="str">
-        <v>男</v>
-      </c>
-      <c r="D106" t="str">
-        <v>研发部</v>
+        <v>王崇</v>
+      </c>
+      <c r="P106" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
-        <v>马旭</v>
+      <c r="A107">
+        <v>380</v>
       </c>
       <c r="B107">
-        <v>15754</v>
+        <v>9853</v>
       </c>
       <c r="C107" t="str">
-        <v>男</v>
-      </c>
-      <c r="D107" t="str">
-        <v>研发部</v>
+        <v>张永瑞</v>
+      </c>
+      <c r="L107" t="str">
+        <v>参加6月期</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
-        <v>王江涛</v>
+      <c r="A108">
+        <v>330</v>
       </c>
       <c r="B108">
-        <v>15936</v>
+        <v>9867</v>
       </c>
       <c r="C108" t="str">
-        <v>男</v>
+        <v>黄丽萍</v>
       </c>
       <c r="D108" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E108" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F108" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="J108" t="str">
+        <v>6月参加</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
-        <v>倪晓宇</v>
+      <c r="A109">
+        <v>63</v>
       </c>
       <c r="B109">
-        <v>15846</v>
+        <v>9871</v>
       </c>
       <c r="C109" t="str">
-        <v>女</v>
+        <v>杨宝栋(离职）</v>
       </c>
       <c r="D109" t="str">
-        <v/>
+        <v>张珏</v>
+      </c>
+      <c r="E109" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F109" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="K109" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
-        <v>王晗</v>
+      <c r="A110">
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>15852</v>
+        <v>9882</v>
       </c>
       <c r="C110" t="str">
-        <v>男</v>
+        <v>刘挺</v>
       </c>
       <c r="D110" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E110" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F110" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="J110" t="str">
+        <v>6月参加</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
-        <v>第6组名单--------------------- 21人</v>
+      <c r="B111">
+        <v>10078</v>
+      </c>
+      <c r="C111" t="str">
+        <v>侯坤</v>
+      </c>
+      <c r="D111" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E111" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F111" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="G111" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="I111" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="P111" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
-        <v>王冬</v>
+      <c r="A112">
+        <v>668</v>
       </c>
       <c r="B112">
-        <v>15890</v>
+        <v>10084</v>
       </c>
       <c r="C112" t="str">
-        <v>男</v>
-      </c>
-      <c r="D112" t="str">
-        <v>运营部</v>
+        <v>李东升</v>
+      </c>
+      <c r="P112" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
-        <v>孙明佳</v>
+      <c r="A113">
+        <v>466</v>
       </c>
       <c r="B113">
-        <v>15831</v>
+        <v>10152</v>
       </c>
       <c r="C113" t="str">
-        <v>女</v>
-      </c>
-      <c r="D113" t="str">
-        <v>运营部</v>
+        <v>郭梦佳</v>
+      </c>
+      <c r="N113" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
-        <v>韩宇</v>
+      <c r="A114">
+        <v>622</v>
       </c>
       <c r="B114">
-        <v>15952</v>
+        <v>10183</v>
       </c>
       <c r="C114" t="str">
-        <v>男</v>
-      </c>
-      <c r="D114" t="str">
-        <v>运营部</v>
+        <v>侯志远</v>
+      </c>
+      <c r="L114" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P114" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
-        <v>李敬玉</v>
-      </c>
       <c r="B115">
-        <v>15772</v>
+        <v>10225</v>
       </c>
       <c r="C115" t="str">
-        <v>女</v>
+        <v>于薇</v>
       </c>
       <c r="D115" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E115" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F115" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="O115" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="str">
-        <v>王绪欣</v>
-      </c>
       <c r="B116">
-        <v>15870</v>
+        <v>10240</v>
       </c>
       <c r="C116" t="str">
-        <v>女</v>
-      </c>
-      <c r="D116" t="str">
-        <v>运营部</v>
+        <v>周子辉</v>
+      </c>
+      <c r="L116" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M116" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="str">
-        <v>高欣</v>
-      </c>
       <c r="B117">
-        <v>15927</v>
+        <v>10334</v>
       </c>
       <c r="C117" t="str">
-        <v>男</v>
-      </c>
-      <c r="D117" t="str">
-        <v>运营部</v>
+        <v>郝绍波</v>
+      </c>
+      <c r="L117" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="O117" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="str">
-        <v>杨志明</v>
+      <c r="A118">
+        <v>242</v>
       </c>
       <c r="B118">
-        <v>15834</v>
+        <v>10429</v>
       </c>
       <c r="C118" t="str">
-        <v>男</v>
+        <v>吴春成</v>
       </c>
       <c r="D118" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E118" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F118" t="str">
+        <v>赵丽欣</v>
+      </c>
+      <c r="K118" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="str">
-        <v>张雪红</v>
+      <c r="A119">
+        <v>424</v>
       </c>
       <c r="B119">
-        <v>15785</v>
+        <v>10514</v>
       </c>
       <c r="C119" t="str">
-        <v>女</v>
-      </c>
-      <c r="D119" t="str">
-        <v>研发部</v>
+        <v>朱明明</v>
+      </c>
+      <c r="M119" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="str">
-        <v>孙成文</v>
+      <c r="A120">
+        <v>361</v>
       </c>
       <c r="B120">
-        <v>15819</v>
+        <v>10530</v>
       </c>
       <c r="C120" t="str">
-        <v>男</v>
-      </c>
-      <c r="D120" t="str">
-        <v>研发部</v>
+        <v>李铁牛</v>
+      </c>
+      <c r="L120" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="str">
-        <v>吴莉莉</v>
+      <c r="A121">
+        <v>396</v>
       </c>
       <c r="B121">
-        <v>15940</v>
+        <v>10754</v>
       </c>
       <c r="C121" t="str">
-        <v>女</v>
-      </c>
-      <c r="D121" t="str">
-        <v>研发部</v>
+        <v>严远平</v>
+      </c>
+      <c r="L121" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="str">
-        <v>汤瑞雪</v>
+      <c r="A122">
+        <v>618</v>
       </c>
       <c r="B122">
-        <v>15869</v>
+        <v>10773</v>
       </c>
       <c r="C122" t="str">
-        <v>女</v>
-      </c>
-      <c r="D122" t="str">
-        <v>研发部</v>
+        <v>徐远东</v>
+      </c>
+      <c r="P122" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="str">
-        <v>李永亮</v>
-      </c>
       <c r="B123">
-        <v>15805</v>
+        <v>10777</v>
       </c>
       <c r="C123" t="str">
-        <v>男</v>
-      </c>
-      <c r="D123" t="str">
-        <v>研发部</v>
+        <v>易东莹</v>
+      </c>
+      <c r="M123" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O123" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="str">
-        <v>王鼎</v>
+      <c r="A124">
+        <v>133</v>
       </c>
       <c r="B124">
-        <v>15779</v>
+        <v>11121</v>
       </c>
       <c r="C124" t="str">
-        <v>男</v>
+        <v>高苏琳</v>
       </c>
       <c r="D124" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E124" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F124" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="I124" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="J124" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="str">
-        <v>杨明</v>
+      <c r="A125">
+        <v>598</v>
       </c>
       <c r="B125">
-        <v>15741</v>
+        <v>11133</v>
       </c>
       <c r="C125" t="str">
-        <v>男</v>
+        <v>张博森</v>
       </c>
       <c r="D125" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E125" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F125" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="H125" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I125" t="str">
+        <v>三期都参加</v>
+      </c>
+      <c r="J125" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K125" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="L125" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M125" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="N125" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="str">
-        <v>李铮</v>
-      </c>
       <c r="B126">
-        <v>15911</v>
+        <v>11220</v>
       </c>
       <c r="C126" t="str">
-        <v>男</v>
-      </c>
-      <c r="D126" t="str">
-        <v>研发部</v>
+        <v>田春英</v>
+      </c>
+      <c r="L126" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="M126" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="str">
-        <v>何波</v>
-      </c>
       <c r="B127">
-        <v>15899</v>
+        <v>11329</v>
       </c>
       <c r="C127" t="str">
-        <v>男</v>
-      </c>
-      <c r="D127" t="str">
-        <v>研发部</v>
+        <v>张欣欣</v>
+      </c>
+      <c r="M127" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O127" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="str">
-        <v>李坤</v>
+      <c r="A128">
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>15865</v>
+        <v>11354</v>
       </c>
       <c r="C128" t="str">
-        <v>男</v>
+        <v>岳洁钰</v>
       </c>
       <c r="D128" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E128" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F128" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="G128" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="I128" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="str">
-        <v>杨照昆</v>
-      </c>
       <c r="B129">
-        <v>15848</v>
+        <v>11426</v>
       </c>
       <c r="C129" t="str">
-        <v>男</v>
-      </c>
-      <c r="D129" t="str">
-        <v>研发部</v>
+        <v>靳贝贝</v>
+      </c>
+      <c r="L129" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P129" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="str">
-        <v>蒋伟东</v>
+      <c r="A130">
+        <v>431</v>
       </c>
       <c r="B130">
-        <v>15750</v>
+        <v>11447</v>
       </c>
       <c r="C130" t="str">
-        <v>男</v>
-      </c>
-      <c r="D130" t="str">
-        <v>研发部</v>
+        <v>陈楚洁</v>
+      </c>
+      <c r="M130" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="str">
-        <v>王迪</v>
-      </c>
       <c r="B131">
-        <v>15933</v>
+        <v>11459</v>
       </c>
       <c r="C131" t="str">
-        <v>女</v>
+        <v>何超颖</v>
+      </c>
+      <c r="O131" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="str">
-        <v>相媛媛</v>
+      <c r="A132">
+        <v>471</v>
       </c>
       <c r="B132">
-        <v>15914</v>
+        <v>11545</v>
       </c>
       <c r="C132" t="str">
-        <v>女</v>
-      </c>
-      <c r="D132" t="str">
-        <v>研发部</v>
+        <v>李小萃</v>
+      </c>
+      <c r="N132" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="str">
-        <v>第7组名单--------------------- 22人</v>
+      <c r="A133">
+        <v>88</v>
+      </c>
+      <c r="B133">
+        <v>11638</v>
+      </c>
+      <c r="C133" t="str">
+        <v>胥望军</v>
+      </c>
+      <c r="D133" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E133" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F133" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="G133" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H133" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I133" t="str">
+        <v>参加第三期</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="str">
-        <v>袁欣</v>
-      </c>
       <c r="B134">
-        <v>15733</v>
+        <v>11653</v>
       </c>
       <c r="C134" t="str">
-        <v>女</v>
+        <v>高鹏</v>
       </c>
       <c r="D134" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E134" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F134" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="G134" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H134" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I134" t="str">
+        <v>三期都参加</v>
+      </c>
+      <c r="J134" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="M134" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="N134" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="str">
-        <v>齐志伟</v>
+      <c r="A135">
+        <v>635</v>
       </c>
       <c r="B135">
-        <v>15760</v>
+        <v>11834</v>
       </c>
       <c r="C135" t="str">
-        <v>女</v>
-      </c>
-      <c r="D135" t="str">
-        <v>运营部</v>
+        <v>李英楠</v>
+      </c>
+      <c r="N135" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="str">
-        <v>淦梦璇</v>
-      </c>
       <c r="B136">
-        <v>15751</v>
+        <v>11883</v>
       </c>
       <c r="C136" t="str">
-        <v>女</v>
-      </c>
-      <c r="D136" t="str">
-        <v>运营部</v>
+        <v>刘其秀</v>
+      </c>
+      <c r="L136" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="N136" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="str">
-        <v>耿飞</v>
-      </c>
       <c r="B137">
-        <v>15923</v>
+        <v>11995</v>
       </c>
       <c r="C137" t="str">
-        <v>男</v>
-      </c>
-      <c r="D137" t="str">
-        <v>运营部</v>
+        <v>关里</v>
+      </c>
+      <c r="L137" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="O137" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="str">
-        <v>冯志军</v>
-      </c>
       <c r="B138">
-        <v>15782</v>
+        <v>12000</v>
       </c>
       <c r="C138" t="str">
-        <v>男</v>
-      </c>
-      <c r="D138" t="str">
-        <v>运营部</v>
+        <v>陈刚</v>
+      </c>
+      <c r="L138" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="N138" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="str">
-        <v>刘东升</v>
+      <c r="A139">
+        <v>226</v>
       </c>
       <c r="B139">
-        <v>15745</v>
+        <v>12032</v>
       </c>
       <c r="C139" t="str">
-        <v>男</v>
+        <v>王炜</v>
       </c>
       <c r="D139" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E139" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F139" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="H139" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I139" t="str">
+        <v>参加第一期, 参加第二期</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="str">
-        <v>孙伟波</v>
-      </c>
       <c r="B140">
-        <v>15759</v>
+        <v>12033</v>
       </c>
       <c r="C140" t="str">
-        <v>女</v>
-      </c>
-      <c r="D140" t="str">
-        <v>研发部</v>
+        <v>王会峰</v>
+      </c>
+      <c r="L140" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="M140" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="str">
-        <v>王艳林</v>
+      <c r="A141">
+        <v>303</v>
       </c>
       <c r="B141">
-        <v>15873</v>
+        <v>12061</v>
       </c>
       <c r="C141" t="str">
-        <v>男</v>
+        <v>贺海鹏</v>
       </c>
       <c r="D141" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E141" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F141" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="H141" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I141" t="str">
+        <v>参加第二期，第三期</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="str">
-        <v>曹金枝</v>
+      <c r="A142">
+        <v>493</v>
       </c>
       <c r="B142">
-        <v>15823</v>
+        <v>12089</v>
       </c>
       <c r="C142" t="str">
-        <v>女</v>
-      </c>
-      <c r="D142" t="str">
-        <v>研发部</v>
+        <v>白彦冰</v>
+      </c>
+      <c r="O142" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="str">
-        <v>赵娜</v>
+      <c r="A143">
+        <v>263</v>
       </c>
       <c r="B143">
-        <v>15827</v>
+        <v>12100</v>
       </c>
       <c r="C143" t="str">
-        <v>女</v>
+        <v>张鹏</v>
       </c>
       <c r="D143" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E143" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F143" t="str">
+        <v>魏宽</v>
+      </c>
+      <c r="H143" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="J143" t="str">
+        <v>12月参加</v>
+      </c>
+      <c r="K143" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="str">
-        <v>张波</v>
+      <c r="A144">
+        <v>556</v>
       </c>
       <c r="B144">
-        <v>15920</v>
+        <v>12106</v>
       </c>
       <c r="C144" t="str">
-        <v>男</v>
-      </c>
-      <c r="D144" t="str">
-        <v>研发部</v>
+        <v>戴佳</v>
+      </c>
+      <c r="P144" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="str">
-        <v>杨文博</v>
+      <c r="A145">
+        <v>514</v>
       </c>
       <c r="B145">
-        <v>15893</v>
+        <v>12142</v>
       </c>
       <c r="C145" t="str">
-        <v>男</v>
-      </c>
-      <c r="D145" t="str">
-        <v>研发部</v>
+        <v>汤云波</v>
+      </c>
+      <c r="O145" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="str">
-        <v>张晓亮</v>
+      <c r="A146">
+        <v>503</v>
       </c>
       <c r="B146">
-        <v>15840</v>
+        <v>12144</v>
       </c>
       <c r="C146" t="str">
-        <v>男</v>
-      </c>
-      <c r="D146" t="str">
-        <v>研发部</v>
+        <v>李永伟</v>
+      </c>
+      <c r="O146" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="str">
-        <v>庞永康</v>
+      <c r="A147">
+        <v>438</v>
       </c>
       <c r="B147">
-        <v>15747</v>
+        <v>12270</v>
       </c>
       <c r="C147" t="str">
-        <v>男</v>
-      </c>
-      <c r="D147" t="str">
-        <v>研发部</v>
+        <v>张海波</v>
+      </c>
+      <c r="M147" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="str">
-        <v>望翔</v>
-      </c>
       <c r="B148">
-        <v>15738</v>
+        <v>12284</v>
       </c>
       <c r="C148" t="str">
-        <v>男</v>
-      </c>
-      <c r="D148" t="str">
-        <v>研发部</v>
+        <v>周晓燕</v>
+      </c>
+      <c r="M148" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P148" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="str">
-        <v>夏明飞</v>
+      <c r="A149">
+        <v>636</v>
       </c>
       <c r="B149">
-        <v>15732</v>
+        <v>12306</v>
       </c>
       <c r="C149" t="str">
-        <v>男</v>
-      </c>
-      <c r="D149" t="str">
-        <v>研发部</v>
+        <v>郝威</v>
+      </c>
+      <c r="N149" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="str">
-        <v>刘国祥</v>
+      <c r="A150">
+        <v>192</v>
       </c>
       <c r="B150">
-        <v>15924</v>
+        <v>12338</v>
       </c>
       <c r="C150" t="str">
-        <v>男</v>
+        <v>杨华超</v>
       </c>
       <c r="D150" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E150" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F150" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="H150" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I150" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="J150" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K150" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="str">
-        <v>张宪华</v>
+      <c r="A151">
+        <v>437</v>
       </c>
       <c r="B151">
-        <v>15912</v>
+        <v>12433</v>
       </c>
       <c r="C151" t="str">
-        <v>男</v>
-      </c>
-      <c r="D151" t="str">
-        <v>研发部</v>
+        <v>龙娟</v>
+      </c>
+      <c r="M151" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="str">
-        <v>徐玉林</v>
+      <c r="A152">
+        <v>308</v>
       </c>
       <c r="B152">
-        <v>15906</v>
+        <v>12460</v>
       </c>
       <c r="C152" t="str">
-        <v>男</v>
+        <v>徐嵩</v>
       </c>
       <c r="D152" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E152" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F152" t="str">
+        <v>杨晨</v>
+      </c>
+      <c r="I152" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="str">
-        <v>张媛媛</v>
+      <c r="A153">
+        <v>347</v>
       </c>
       <c r="B153">
-        <v>15925</v>
+        <v>12471</v>
       </c>
       <c r="C153" t="str">
-        <v>女</v>
+        <v>渠周琳</v>
+      </c>
+      <c r="L153" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="str">
-        <v>李跃渊</v>
+      <c r="A154">
+        <v>637</v>
       </c>
       <c r="B154">
-        <v>15753</v>
+        <v>12476</v>
       </c>
       <c r="C154" t="str">
-        <v>女</v>
-      </c>
-      <c r="D154" t="str">
-        <v>运营部</v>
+        <v>邱娜娜</v>
+      </c>
+      <c r="N154" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="str">
-        <v>王信哲</v>
+      <c r="A155">
+        <v>638</v>
       </c>
       <c r="B155">
-        <v>15863</v>
+        <v>12512</v>
       </c>
       <c r="C155" t="str">
-        <v>男</v>
-      </c>
-      <c r="D155" t="str">
-        <v>运营部</v>
+        <v>何轶谦</v>
+      </c>
+      <c r="N155" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="str">
-        <v>第8组名单--------------------- 22人</v>
+      <c r="A156">
+        <v>639</v>
+      </c>
+      <c r="B156">
+        <v>12540</v>
+      </c>
+      <c r="C156" t="str">
+        <v>郑敏</v>
+      </c>
+      <c r="N156" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="str">
-        <v>石磊</v>
+      <c r="A157">
+        <v>606</v>
       </c>
       <c r="B157">
-        <v>15950</v>
+        <v>12546</v>
       </c>
       <c r="C157" t="str">
-        <v>男</v>
-      </c>
-      <c r="D157" t="str">
-        <v>运营部</v>
+        <v>海日</v>
+      </c>
+      <c r="L157" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="P157" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q157" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="str">
-        <v>郑玲玲</v>
+      <c r="A158">
+        <v>640</v>
       </c>
       <c r="B158">
-        <v>15802</v>
+        <v>12632</v>
       </c>
       <c r="C158" t="str">
-        <v>女</v>
-      </c>
-      <c r="D158" t="str">
-        <v>运营部</v>
+        <v>刘毅</v>
+      </c>
+      <c r="N158" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="str">
-        <v>段晓炜</v>
+      <c r="A159">
+        <v>20</v>
       </c>
       <c r="B159">
-        <v>15763</v>
+        <v>12719</v>
       </c>
       <c r="C159" t="str">
-        <v>男</v>
+        <v>李胜利</v>
       </c>
       <c r="D159" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E159" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F159" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="K159" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="str">
-        <v>张国华</v>
-      </c>
       <c r="B160">
-        <v>15862</v>
+        <v>12747</v>
       </c>
       <c r="C160" t="str">
-        <v>女</v>
-      </c>
-      <c r="D160" t="str">
-        <v>运营部</v>
+        <v>郭静晨</v>
+      </c>
+      <c r="O160" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P160" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="str">
-        <v>徐思静</v>
-      </c>
       <c r="B161">
-        <v>15861</v>
+        <v>12753</v>
       </c>
       <c r="C161" t="str">
-        <v>女</v>
+        <v>刘志刚</v>
       </c>
       <c r="D161" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E161" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F161" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="J161" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="N161" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O161" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P161" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="str">
-        <v>彭农翔</v>
+      <c r="A162">
+        <v>6</v>
       </c>
       <c r="B162">
-        <v>15800</v>
+        <v>12775</v>
       </c>
       <c r="C162" t="str">
-        <v>男</v>
+        <v>郭志强</v>
       </c>
       <c r="D162" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E162" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F162" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="K162" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="str">
-        <v>于瑞洋</v>
+      <c r="A163">
+        <v>397</v>
       </c>
       <c r="B163">
-        <v>15878</v>
+        <v>12809</v>
       </c>
       <c r="C163" t="str">
-        <v>男</v>
-      </c>
-      <c r="D163" t="str">
-        <v>研发部</v>
+        <v>阎智力</v>
+      </c>
+      <c r="L163" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="str">
-        <v>欧阳慧</v>
+      <c r="A164">
+        <v>315</v>
       </c>
       <c r="B164">
-        <v>15822</v>
+        <v>12859</v>
       </c>
       <c r="C164" t="str">
-        <v>女</v>
+        <v>苏晓武</v>
       </c>
       <c r="D164" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E164" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F164" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="I164" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="str">
-        <v>李霄晨</v>
+      <c r="A165">
+        <v>285</v>
       </c>
       <c r="B165">
-        <v>15768</v>
+        <v>12871</v>
       </c>
       <c r="C165" t="str">
-        <v>女</v>
+        <v>贾艳清</v>
       </c>
       <c r="D165" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E165" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F165" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="I165" t="str">
+        <v>参加第三期</v>
+      </c>
+      <c r="J165" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="str">
-        <v>王捷</v>
+      <c r="A166">
+        <v>135</v>
       </c>
       <c r="B166">
-        <v>15851</v>
+        <v>12874</v>
       </c>
       <c r="C166" t="str">
-        <v>男</v>
+        <v>何春梅</v>
       </c>
       <c r="D166" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E166" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F166" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="I166" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="K166" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="str">
-        <v>高亮</v>
+      <c r="A167">
+        <v>641</v>
       </c>
       <c r="B167">
-        <v>15756</v>
+        <v>12994</v>
       </c>
       <c r="C167" t="str">
-        <v>女</v>
-      </c>
-      <c r="D167" t="str">
-        <v>研发部</v>
+        <v>郑宇</v>
+      </c>
+      <c r="N167" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="str">
-        <v>时云龙</v>
-      </c>
       <c r="B168">
-        <v>15735</v>
+        <v>13081</v>
       </c>
       <c r="C168" t="str">
-        <v>男</v>
+        <v>王欣</v>
       </c>
       <c r="D168" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E168" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F168" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="G168" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H168" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="J168" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="Q168" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="str">
-        <v>乔大伟</v>
-      </c>
       <c r="B169">
-        <v>15921</v>
+        <v>13121</v>
       </c>
       <c r="C169" t="str">
-        <v>男</v>
-      </c>
-      <c r="D169" t="str">
-        <v>研发部</v>
+        <v>殷硕</v>
+      </c>
+      <c r="O169" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P169" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="str">
-        <v>张世强</v>
+      <c r="A170">
+        <v>557</v>
       </c>
       <c r="B170">
-        <v>15901</v>
+        <v>13142</v>
       </c>
       <c r="C170" t="str">
-        <v>男</v>
+        <v>李苏平</v>
       </c>
       <c r="D170" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E170" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F170" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="H170" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="J170" t="str">
+        <v>12月参加</v>
+      </c>
+      <c r="L170" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P170" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="str">
-        <v>王毅峰</v>
+      <c r="A171">
+        <v>654</v>
       </c>
       <c r="B171">
-        <v>15789</v>
+        <v>13161</v>
       </c>
       <c r="C171" t="str">
-        <v>男</v>
-      </c>
-      <c r="D171" t="str">
-        <v>研发部</v>
+        <v>张皓</v>
+      </c>
+      <c r="N171" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="str">
-        <v>汤杰</v>
+      <c r="A172">
+        <v>271</v>
       </c>
       <c r="B172">
-        <v>15770</v>
+        <v>13179</v>
       </c>
       <c r="C172" t="str">
-        <v>男</v>
+        <v>苗雨润</v>
       </c>
       <c r="D172" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E172" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F172" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="I172" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+      <c r="K172" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="str">
-        <v>徐功伟</v>
+      <c r="A173">
+        <v>273</v>
       </c>
       <c r="B173">
-        <v>15730</v>
+        <v>13216</v>
       </c>
       <c r="C173" t="str">
-        <v>男</v>
+        <v>邓再兴</v>
       </c>
       <c r="D173" t="str">
-        <v>研发部</v>
+        <v>许广</v>
+      </c>
+      <c r="E173" t="str">
+        <v>许广</v>
+      </c>
+      <c r="F173" t="str">
+        <v>张秀玲</v>
+      </c>
+      <c r="K173" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="str">
-        <v>刁英超</v>
+      <c r="A174">
+        <v>319</v>
       </c>
       <c r="B174">
-        <v>15767</v>
+        <v>13273</v>
       </c>
       <c r="C174" t="str">
-        <v>男</v>
+        <v>栾博</v>
       </c>
       <c r="D174" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E174" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F174" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="I174" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="str">
-        <v>张健</v>
+      <c r="A175">
+        <v>642</v>
       </c>
       <c r="B175">
-        <v>15804</v>
+        <v>13412</v>
       </c>
       <c r="C175" t="str">
-        <v>男</v>
-      </c>
-      <c r="D175" t="str">
-        <v>研发部</v>
+        <v>陈罡</v>
+      </c>
+      <c r="N175" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="str">
-        <v>王旭</v>
+      <c r="A176">
+        <v>487</v>
       </c>
       <c r="B176">
-        <v>15916</v>
+        <v>13413</v>
       </c>
       <c r="C176" t="str">
-        <v>女</v>
+        <v>田耕辉</v>
+      </c>
+      <c r="N176" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="str">
-        <v>宁万春</v>
+      <c r="A177">
+        <v>311</v>
       </c>
       <c r="B177">
-        <v>15792</v>
+        <v>13425</v>
       </c>
       <c r="C177" t="str">
-        <v>男</v>
+        <v>周利彬</v>
       </c>
       <c r="D177" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E177" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F177" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="I177" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="str">
-        <v>张洁洁</v>
+      <c r="A178">
+        <v>327</v>
       </c>
       <c r="B178">
-        <v>15744</v>
+        <v>13467</v>
       </c>
       <c r="C178" t="str">
-        <v>女</v>
+        <v>陈春瑜</v>
       </c>
       <c r="D178" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E178" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F178" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="I178" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="str">
-        <v>第9组名单--------------------- 22人</v>
+      <c r="B179">
+        <v>13525</v>
+      </c>
+      <c r="C179" t="str">
+        <v>肖燕</v>
+      </c>
+      <c r="L179" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="O179" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="str">
-        <v>刘亚杰</v>
-      </c>
       <c r="B180">
-        <v>15832</v>
+        <v>13553</v>
       </c>
       <c r="C180" t="str">
-        <v>男</v>
-      </c>
-      <c r="D180" t="str">
-        <v>运营部</v>
+        <v>夏川舒</v>
+      </c>
+      <c r="M180" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P180" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="str">
-        <v>宋紫翘</v>
+      <c r="A181">
+        <v>301</v>
       </c>
       <c r="B181">
-        <v>15856</v>
+        <v>13571</v>
       </c>
       <c r="C181" t="str">
-        <v>女</v>
+        <v>魏旭</v>
       </c>
       <c r="D181" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E181" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F181" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="H181" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I181" t="str">
+        <v>三期都参加</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="str">
-        <v>刘晓明</v>
-      </c>
       <c r="B182">
-        <v>15766</v>
+        <v>13572</v>
       </c>
       <c r="C182" t="str">
-        <v>男</v>
+        <v>梁田</v>
       </c>
       <c r="D182" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E182" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F182" t="str">
+        <v>魏宽</v>
+      </c>
+      <c r="G182" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="J182" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K182" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="L182" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="O182" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P182" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="str">
-        <v>余艳君</v>
+      <c r="A183">
+        <v>103</v>
       </c>
       <c r="B183">
-        <v>15877</v>
+        <v>13603</v>
       </c>
       <c r="C183" t="str">
-        <v>女</v>
+        <v>万东德</v>
       </c>
       <c r="D183" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E183" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F183" t="str">
+        <v>陈晖</v>
+      </c>
+      <c r="G183" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H183" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I183" t="str">
+        <v>参加第一期，第三期</v>
+      </c>
+      <c r="J183" t="str">
+        <v>12月参加</v>
+      </c>
+      <c r="K183" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="str">
-        <v>郭亚吉</v>
+      <c r="A184">
+        <v>332</v>
       </c>
       <c r="B184">
-        <v>15909</v>
+        <v>13654</v>
       </c>
       <c r="C184" t="str">
-        <v>男</v>
-      </c>
-      <c r="D184" t="str">
-        <v>运营部</v>
+        <v>柴琦</v>
+      </c>
+      <c r="L184" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="str">
-        <v>朱亚敏</v>
-      </c>
       <c r="B185">
-        <v>15872</v>
+        <v>13683</v>
       </c>
       <c r="C185" t="str">
-        <v>女</v>
-      </c>
-      <c r="D185" t="str">
-        <v>运营部</v>
+        <v>陈娇</v>
+      </c>
+      <c r="N185" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O185" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="str">
-        <v>郭健</v>
+      <c r="A186">
+        <v>280</v>
       </c>
       <c r="B186">
-        <v>15830</v>
+        <v>13698</v>
       </c>
       <c r="C186" t="str">
-        <v>男</v>
+        <v>王中宝</v>
       </c>
       <c r="D186" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E186" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F186" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="I186" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="J186" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="str">
-        <v>田得聖</v>
+      <c r="A187">
+        <v>32</v>
       </c>
       <c r="B187">
-        <v>15898</v>
+        <v>13776</v>
       </c>
       <c r="C187" t="str">
-        <v>男</v>
+        <v>侯建宇</v>
       </c>
       <c r="D187" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E187" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F187" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="H187" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I187" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="K187" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="str">
-        <v>马云游</v>
+      <c r="A188">
+        <v>643</v>
       </c>
       <c r="B188">
-        <v>15752</v>
+        <v>13917</v>
       </c>
       <c r="C188" t="str">
-        <v>女</v>
-      </c>
-      <c r="D188" t="str">
-        <v>研发部</v>
+        <v>丁壮</v>
+      </c>
+      <c r="N188" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="str">
-        <v>张雪飞</v>
-      </c>
       <c r="B189">
-        <v>15919</v>
+        <v>14059</v>
       </c>
       <c r="C189" t="str">
-        <v>女</v>
-      </c>
-      <c r="D189" t="str">
-        <v>研发部</v>
+        <v>窦艳洁</v>
+      </c>
+      <c r="M189" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O189" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="str">
-        <v>段仰玉</v>
+      <c r="A190">
+        <v>354</v>
       </c>
       <c r="B190">
-        <v>15908</v>
+        <v>14060</v>
       </c>
       <c r="C190" t="str">
-        <v>男</v>
-      </c>
-      <c r="D190" t="str">
-        <v>研发部</v>
+        <v>杨大龙</v>
+      </c>
+      <c r="L190" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="str">
-        <v>丁玉双</v>
+      <c r="A191">
+        <v>513</v>
       </c>
       <c r="B191">
-        <v>15907</v>
+        <v>14232</v>
       </c>
       <c r="C191" t="str">
-        <v>女</v>
+        <v>孙科</v>
       </c>
       <c r="D191" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E191" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F191" t="str">
+        <v>陈晖</v>
+      </c>
+      <c r="I191" t="str">
+        <v>参加第一期, 参加第二期</v>
+      </c>
+      <c r="K191" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="L191" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="O191" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="str">
-        <v>曾海光</v>
+      <c r="A192">
+        <v>54</v>
       </c>
       <c r="B192">
-        <v>15943</v>
+        <v>14234</v>
       </c>
       <c r="C192" t="str">
-        <v>男</v>
+        <v>董典辉</v>
       </c>
       <c r="D192" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E192" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F192" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="G192" t="str">
+        <v>9月参加</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="str">
-        <v>吴楚杰</v>
+      <c r="A193">
+        <v>316</v>
       </c>
       <c r="B193">
-        <v>15742</v>
+        <v>14239</v>
       </c>
       <c r="C193" t="str">
-        <v>男</v>
+        <v>付路</v>
       </c>
       <c r="D193" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E193" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F193" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="I193" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="str">
-        <v>李琳</v>
+      <c r="A194">
+        <v>65</v>
       </c>
       <c r="B194">
-        <v>15809</v>
+        <v>14271</v>
       </c>
       <c r="C194" t="str">
-        <v>男</v>
+        <v>刘美子</v>
       </c>
       <c r="D194" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E194" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F194" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="G194" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H194" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I194" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+      <c r="J194" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K194" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="str">
-        <v>王参加</v>
+      <c r="A195">
+        <v>384</v>
       </c>
       <c r="B195">
-        <v>15859</v>
+        <v>14283</v>
       </c>
       <c r="C195" t="str">
-        <v>男</v>
-      </c>
-      <c r="D195" t="str">
-        <v>研发部</v>
+        <v>何磊</v>
+      </c>
+      <c r="L195" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="str">
-        <v>张军</v>
+      <c r="A196">
+        <v>26</v>
       </c>
       <c r="B196">
-        <v>15881</v>
+        <v>14310</v>
       </c>
       <c r="C196" t="str">
-        <v>男</v>
+        <v>陈星灿</v>
       </c>
       <c r="D196" t="str">
-        <v>研发部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E196" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F196" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="H196" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I196" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+      <c r="J196" t="str">
+        <v>12月参加</v>
+      </c>
+      <c r="K196" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="str">
-        <v>历增辉</v>
+      <c r="A197">
+        <v>322</v>
       </c>
       <c r="B197">
-        <v>15758</v>
+        <v>14324</v>
       </c>
       <c r="C197" t="str">
-        <v>男</v>
+        <v>邵梦宇</v>
       </c>
       <c r="D197" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E197" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F197" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="I197" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="str">
-        <v>李立国</v>
-      </c>
       <c r="B198">
-        <v>15783</v>
+        <v>14362</v>
       </c>
       <c r="C198" t="str">
-        <v>男</v>
-      </c>
-      <c r="D198" t="str">
-        <v>研发部</v>
+        <v>王云涛</v>
+      </c>
+      <c r="M198" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P198" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="str">
-        <v>赵然</v>
+      <c r="A199">
+        <v>382</v>
       </c>
       <c r="B199">
-        <v>15775</v>
+        <v>14435</v>
       </c>
       <c r="C199" t="str">
-        <v>女</v>
-      </c>
-      <c r="D199" t="str">
-        <v/>
+        <v>郭昭</v>
+      </c>
+      <c r="L199" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="str">
-        <v>张华阳</v>
+      <c r="A200">
+        <v>227</v>
       </c>
       <c r="B200">
-        <v>15762</v>
+        <v>14487</v>
       </c>
       <c r="C200" t="str">
-        <v>女</v>
+        <v>田晶</v>
       </c>
       <c r="D200" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E200" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F200" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="G200" t="str">
+        <v>9月参加</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="str">
-        <v>张爽</v>
-      </c>
       <c r="B201">
-        <v>15748</v>
+        <v>14489</v>
       </c>
       <c r="C201" t="str">
-        <v>女</v>
+        <v>杨龙飞</v>
       </c>
       <c r="D201" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E201" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F201" t="str">
+        <v>魏宽</v>
+      </c>
+      <c r="G201" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="P201" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="str">
-        <v>第10组名单--------------------- 22人</v>
+      <c r="A202">
+        <v>657</v>
+      </c>
+      <c r="B202">
+        <v>14493</v>
+      </c>
+      <c r="C202" t="str">
+        <v>秦中原</v>
+      </c>
+      <c r="P202" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="str">
-        <v>郑佳茜</v>
+      <c r="A203">
+        <v>645</v>
       </c>
       <c r="B203">
-        <v>15761</v>
+        <v>14499</v>
       </c>
       <c r="C203" t="str">
-        <v>女</v>
-      </c>
-      <c r="D203" t="str">
-        <v>运营部</v>
+        <v>武斌</v>
+      </c>
+      <c r="N203" t="str">
+        <v>渠道7月定制</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="str">
-        <v>王鹤鹏</v>
+      <c r="A204">
+        <v>300</v>
       </c>
       <c r="B204">
-        <v>15932</v>
+        <v>14528</v>
       </c>
       <c r="C204" t="str">
-        <v>男</v>
+        <v>李婷领</v>
       </c>
       <c r="D204" t="str">
-        <v>运营部</v>
+        <v>吴翠翠</v>
+      </c>
+      <c r="E204" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F204" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="H204" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I204" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+      <c r="J204" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="str">
-        <v>周佳</v>
+      <c r="A205">
+        <v>309</v>
       </c>
       <c r="B205">
-        <v>15888</v>
+        <v>14532</v>
       </c>
       <c r="C205" t="str">
-        <v>女</v>
+        <v>段海峰</v>
       </c>
       <c r="D205" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E205" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F205" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="I205" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="str">
-        <v>李一茂</v>
+      <c r="A206">
+        <v>623</v>
       </c>
       <c r="B206">
-        <v>15731</v>
+        <v>14552</v>
       </c>
       <c r="C206" t="str">
-        <v>男</v>
+        <v>孙莉</v>
       </c>
       <c r="D206" t="str">
-        <v>运营部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E206" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F206" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="G206" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="I206" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="P206" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q206" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="str">
-        <v>许亚杰</v>
+      <c r="A207">
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>15889</v>
+        <v>14553</v>
       </c>
       <c r="C207" t="str">
-        <v>女</v>
+        <v>张文颖</v>
       </c>
       <c r="D207" t="str">
-        <v>运营部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E207" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F207" t="str">
+        <v>赵丽欣</v>
+      </c>
+      <c r="G207" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="K207" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="str">
-        <v>韩斌</v>
+      <c r="A208">
+        <v>670</v>
       </c>
       <c r="B208">
-        <v>15864</v>
+        <v>14584</v>
       </c>
       <c r="C208" t="str">
-        <v>男</v>
-      </c>
-      <c r="D208" t="str">
-        <v>运营部</v>
+        <v>杨东顺</v>
+      </c>
+      <c r="P208" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="str">
-        <v>罗富中</v>
+      <c r="A209">
+        <v>228</v>
       </c>
       <c r="B209">
-        <v>15942</v>
+        <v>14586</v>
       </c>
       <c r="C209" t="str">
-        <v>男</v>
+        <v>赵稳</v>
       </c>
       <c r="D209" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E209" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F209" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="K209" t="str">
+        <v>参加第一期</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="str">
-        <v>王豆豆</v>
+      <c r="A210">
+        <v>64</v>
       </c>
       <c r="B210">
-        <v>15739</v>
+        <v>14643</v>
       </c>
       <c r="C210" t="str">
-        <v>女</v>
+        <v>高铭</v>
       </c>
       <c r="D210" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E210" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F210" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="H210" t="str">
+        <v>11月参加</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="str">
-        <v>石凤英</v>
+      <c r="A211">
+        <v>66</v>
       </c>
       <c r="B211">
-        <v>15839</v>
+        <v>14655</v>
       </c>
       <c r="C211" t="str">
-        <v>女</v>
+        <v>刘玉鹏</v>
       </c>
       <c r="D211" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E211" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F211" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="H211" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="J211" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K211" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="str">
-        <v>张祥波</v>
+      <c r="A212">
+        <v>277</v>
       </c>
       <c r="B212">
-        <v>15795</v>
+        <v>14781</v>
       </c>
       <c r="C212" t="str">
-        <v>男</v>
+        <v>康琼</v>
       </c>
       <c r="D212" t="str">
-        <v>研发部</v>
+        <v>张珏</v>
+      </c>
+      <c r="E212" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F212" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="H212" t="str">
+        <v>11月参加</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="str">
-        <v>赵麟</v>
+      <c r="A213">
+        <v>579</v>
       </c>
       <c r="B213">
-        <v>15867</v>
+        <v>14847</v>
       </c>
       <c r="C213" t="str">
-        <v>男</v>
-      </c>
-      <c r="D213" t="str">
-        <v>研发部</v>
+        <v>崔伟</v>
+      </c>
+      <c r="P213" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="str">
-        <v>万文奇</v>
+      <c r="A214">
+        <v>359</v>
       </c>
       <c r="B214">
-        <v>15777</v>
+        <v>14874</v>
       </c>
       <c r="C214" t="str">
-        <v>男</v>
-      </c>
-      <c r="D214" t="str">
-        <v>研发部</v>
+        <v>王欣</v>
+      </c>
+      <c r="L214" t="str">
+        <v>参加4月期</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="str">
-        <v>李艳涛</v>
+      <c r="A215">
+        <v>302</v>
       </c>
       <c r="B215">
-        <v>15841</v>
+        <v>14959</v>
       </c>
       <c r="C215" t="str">
-        <v>女</v>
+        <v>陈帅</v>
       </c>
       <c r="D215" t="str">
-        <v>研发部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E215" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F215" t="str">
+        <v>陈晖</v>
+      </c>
+      <c r="H215" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I215" t="str">
+        <v>三期都参加</v>
+      </c>
+      <c r="J215" t="str">
+        <v>12月参加</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="str">
-        <v>高英举</v>
-      </c>
       <c r="B216">
-        <v>15853</v>
+        <v>15004</v>
       </c>
       <c r="C216" t="str">
-        <v>男</v>
-      </c>
-      <c r="D216" t="str">
-        <v>研发部</v>
+        <v>邓军</v>
+      </c>
+      <c r="M216" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P216" t="str">
+        <v>参加11月期</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="str">
-        <v>于邦旭</v>
-      </c>
       <c r="B217">
-        <v>15849</v>
+        <v>15005</v>
       </c>
       <c r="C217" t="str">
-        <v>男</v>
-      </c>
-      <c r="D217" t="str">
-        <v>研发部</v>
+        <v>陈祖斌</v>
+      </c>
+      <c r="L217" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="M217" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="str">
-        <v>赵佳</v>
+      <c r="A218">
+        <v>481</v>
       </c>
       <c r="B218">
-        <v>15847</v>
+        <v>15025</v>
       </c>
       <c r="C218" t="str">
-        <v>男</v>
-      </c>
-      <c r="D218" t="str">
-        <v>研发部</v>
+        <v>田宏斌</v>
+      </c>
+      <c r="L218" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M218" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="N218" t="str">
+        <v>参加8月期</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="str">
-        <v>周凌云</v>
+      <c r="A219">
+        <v>291</v>
       </c>
       <c r="B219">
-        <v>15871</v>
+        <v>15032</v>
       </c>
       <c r="C219" t="str">
-        <v>女</v>
+        <v>宁伟</v>
       </c>
       <c r="D219" t="str">
-        <v/>
+        <v>花伟</v>
+      </c>
+      <c r="E219" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F219" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="H219" t="str">
+        <v>11月参加</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="str">
-        <v>陈凯</v>
+      <c r="A220">
+        <v>626</v>
       </c>
       <c r="B220">
-        <v>15769</v>
+        <v>15067</v>
       </c>
       <c r="C220" t="str">
-        <v>男</v>
-      </c>
-      <c r="D220" t="str">
-        <v>研发部</v>
+        <v>石慧</v>
+      </c>
+      <c r="Q220" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="str">
-        <v>常建新</v>
+      <c r="A221">
+        <v>661</v>
       </c>
       <c r="B221">
-        <v>15918</v>
+        <v>15168</v>
       </c>
       <c r="C221" t="str">
-        <v>男</v>
-      </c>
-      <c r="D221" t="str">
-        <v>研发部</v>
+        <v>唐茂林</v>
+      </c>
+      <c r="P221" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="str">
-        <v>毛林威</v>
+      <c r="A222">
+        <v>665</v>
       </c>
       <c r="B222">
-        <v>15939</v>
+        <v>15204</v>
       </c>
       <c r="C222" t="str">
-        <v>男</v>
-      </c>
-      <c r="D222" t="str">
-        <v>研发部</v>
+        <v>袁超</v>
+      </c>
+      <c r="P222" t="str">
+        <v>微博广告12月定制</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="str">
-        <v>郭璐萍</v>
+      <c r="A223">
+        <v>581</v>
       </c>
       <c r="B223">
-        <v>15876</v>
+        <v>15214</v>
       </c>
       <c r="C223" t="str">
-        <v>女</v>
-      </c>
-      <c r="D223" t="str">
-        <v>运营部</v>
+        <v>邓琼</v>
+      </c>
+      <c r="L223" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O223" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q223" t="str">
+        <v>参加12月期</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="str">
-        <v>吴迪</v>
+      <c r="A224">
+        <v>269</v>
       </c>
       <c r="B224">
-        <v>15786</v>
+        <v>15369</v>
       </c>
       <c r="C224" t="str">
-        <v>男</v>
+        <v>兰将州</v>
       </c>
       <c r="D224" t="str">
-        <v>产品部</v>
+        <v>于敏</v>
+      </c>
+      <c r="E224" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F224" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="H224" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="K224" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>264</v>
+      </c>
+      <c r="B225">
+        <v>15526</v>
+      </c>
+      <c r="C225" t="str">
+        <v>张欣</v>
+      </c>
+      <c r="D225" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E225" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F225" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="H225" t="str">
+        <v>8月参加</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>240</v>
+      </c>
+      <c r="B226">
+        <v>15571</v>
+      </c>
+      <c r="C226" t="str">
+        <v>韩速</v>
+      </c>
+      <c r="D226" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E226" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F226" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="I226" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227">
+        <v>15595</v>
+      </c>
+      <c r="C227" t="str">
+        <v>张有刚</v>
+      </c>
+      <c r="L227" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="M227" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>664</v>
+      </c>
+      <c r="B228">
+        <v>15625</v>
+      </c>
+      <c r="C228" t="str">
+        <v>杨青</v>
+      </c>
+      <c r="D228" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E228" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F228" t="str">
+        <v>魏宽</v>
+      </c>
+      <c r="K228" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="L228" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P228" t="str">
+        <v>微博广告12月定制</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>51</v>
+      </c>
+      <c r="B229">
+        <v>20037</v>
+      </c>
+      <c r="C229" t="str">
+        <v>沈晴朗</v>
+      </c>
+      <c r="D229" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E229" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F229" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="I229" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>68</v>
+      </c>
+      <c r="B230">
+        <v>20125</v>
+      </c>
+      <c r="C230" t="str">
+        <v>刘骊华</v>
+      </c>
+      <c r="D230" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E230" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F230" t="str">
+        <v>杨建国</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>69</v>
+      </c>
+      <c r="B231">
+        <v>20245</v>
+      </c>
+      <c r="C231" t="str">
+        <v>张斌</v>
+      </c>
+      <c r="D231" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E231" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F231" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="K231" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>587</v>
+      </c>
+      <c r="B232">
+        <v>20394</v>
+      </c>
+      <c r="C232" t="str">
+        <v>黄花</v>
+      </c>
+      <c r="O232" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P232" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="Q232" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>651</v>
+      </c>
+      <c r="B233">
+        <v>20401</v>
+      </c>
+      <c r="C233" t="str">
+        <v>王伶霞</v>
+      </c>
+      <c r="N233" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>600</v>
+      </c>
+      <c r="B234">
+        <v>20626</v>
+      </c>
+      <c r="C234" t="str">
+        <v>王琳</v>
+      </c>
+      <c r="L234" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O234" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="Q234" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235">
+        <v>20671</v>
+      </c>
+      <c r="C235" t="str">
+        <v>吕伟</v>
+      </c>
+      <c r="M235" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="O235" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>463</v>
+      </c>
+      <c r="B236">
+        <v>20900</v>
+      </c>
+      <c r="C236" t="str">
+        <v xml:space="preserve">施源 </v>
+      </c>
+      <c r="N236" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>266</v>
+      </c>
+      <c r="B237">
+        <v>20933</v>
+      </c>
+      <c r="C237" t="str">
+        <v>赵丽微</v>
+      </c>
+      <c r="D237" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E237" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F237" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="H237" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I237" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="K237" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238">
+        <v>20954</v>
+      </c>
+      <c r="C238" t="str">
+        <v>达倩</v>
+      </c>
+      <c r="D238" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E238" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F238" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="I238" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="P238" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>596</v>
+      </c>
+      <c r="B239">
+        <v>20955</v>
+      </c>
+      <c r="C239" t="str">
+        <v>徐小溪</v>
+      </c>
+      <c r="Q239" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>48</v>
+      </c>
+      <c r="B240">
+        <v>20972</v>
+      </c>
+      <c r="C240" t="str">
+        <v>孔令旭</v>
+      </c>
+      <c r="D240" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E240" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F240" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="H240" t="str">
+        <v>8月参加</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241">
+        <v>20978</v>
+      </c>
+      <c r="C241" t="str">
+        <v>夏阳</v>
+      </c>
+      <c r="L241" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="M241" t="str">
+        <v>参加4月期</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>506</v>
+      </c>
+      <c r="B242">
+        <v>21087</v>
+      </c>
+      <c r="C242" t="str">
+        <v>刘砚春</v>
+      </c>
+      <c r="O242" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>261</v>
+      </c>
+      <c r="B243">
+        <v>21138</v>
+      </c>
+      <c r="C243" t="str">
+        <v>张晶磊</v>
+      </c>
+      <c r="D243" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E243" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F243" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="H243" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I243" t="str">
+        <v>参加第三期</v>
+      </c>
+      <c r="K243" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244">
+        <v>21183</v>
+      </c>
+      <c r="C244" t="str">
+        <v>周睿</v>
+      </c>
+      <c r="D244" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E244" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F244" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="G244" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="I244" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="P244" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245">
+        <v>21214</v>
+      </c>
+      <c r="C245" t="str">
+        <v>佟振</v>
+      </c>
+      <c r="L245" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="M245" t="str">
+        <v>参加4月期</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>482</v>
+      </c>
+      <c r="B246">
+        <v>21222</v>
+      </c>
+      <c r="C246" t="str">
+        <v>王觉</v>
+      </c>
+      <c r="N246" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247">
+        <v>21249</v>
+      </c>
+      <c r="C247" t="str">
+        <v>吴宇卓</v>
+      </c>
+      <c r="L247" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q247" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248">
+        <v>21277</v>
+      </c>
+      <c r="C248" t="str">
+        <v>厉明</v>
+      </c>
+      <c r="L248" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="P248" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>286</v>
+      </c>
+      <c r="B249">
+        <v>21292</v>
+      </c>
+      <c r="C249" t="str">
+        <v>程伟</v>
+      </c>
+      <c r="D249" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E249" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F249" t="str">
+        <v>杨晨</v>
+      </c>
+      <c r="I249" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="J249" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>225</v>
+      </c>
+      <c r="B250">
+        <v>21356</v>
+      </c>
+      <c r="C250" t="str">
+        <v>刘巍峰</v>
+      </c>
+      <c r="D250" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E250" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F250" t="str">
+        <v>杨志杰</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251">
+        <v>21497</v>
+      </c>
+      <c r="C251" t="str">
+        <v>刘静波</v>
+      </c>
+      <c r="L251" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="P251" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>265</v>
+      </c>
+      <c r="B252">
+        <v>21521</v>
+      </c>
+      <c r="C252" t="str">
+        <v>张雅婷</v>
+      </c>
+      <c r="D252" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E252" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F252" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="H252" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="I252" t="str">
+        <v>参加第一期，第三期</v>
+      </c>
+      <c r="J252" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K252" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>480</v>
+      </c>
+      <c r="B253">
+        <v>21525</v>
+      </c>
+      <c r="C253" t="str">
+        <v>史欣</v>
+      </c>
+      <c r="N253" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254">
+        <v>21526</v>
+      </c>
+      <c r="C254" t="str">
+        <v>李慧姊</v>
+      </c>
+      <c r="O254" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P254" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>655</v>
+      </c>
+      <c r="B255">
+        <v>21557</v>
+      </c>
+      <c r="C255" t="str">
+        <v>邓小鸥</v>
+      </c>
+      <c r="P255" t="str">
+        <v>微博广告12月定制</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>516</v>
+      </c>
+      <c r="B256">
+        <v>21606</v>
+      </c>
+      <c r="C256" t="str">
+        <v>王佳</v>
+      </c>
+      <c r="O256" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>439</v>
+      </c>
+      <c r="B257">
+        <v>21667</v>
+      </c>
+      <c r="C257" t="str">
+        <v>台风</v>
+      </c>
+      <c r="M257" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>21693</v>
+      </c>
+      <c r="C258" t="str">
+        <v>倪楠</v>
+      </c>
+      <c r="D258" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E258" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="F258" t="str">
+        <v>王海琼</v>
+      </c>
+      <c r="H258" t="str">
+        <v>8月参加</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>232</v>
+      </c>
+      <c r="B259">
+        <v>21718</v>
+      </c>
+      <c r="C259" t="str">
+        <v>焦伟</v>
+      </c>
+      <c r="D259" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E259" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F259" t="str">
+        <v>杨晨</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>123</v>
+      </c>
+      <c r="B260">
+        <v>21749</v>
+      </c>
+      <c r="C260" t="str">
+        <v>任千永</v>
+      </c>
+      <c r="D260" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E260" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F260" t="str">
+        <v>魏宽</v>
+      </c>
+      <c r="J260" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K260" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>305</v>
+      </c>
+      <c r="B261">
+        <v>21755</v>
+      </c>
+      <c r="C261" t="str">
+        <v>孙庆利</v>
+      </c>
+      <c r="D261" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E261" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F261" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="H261" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I261" t="str">
+        <v>参加第一期，第三期</v>
+      </c>
+      <c r="J261" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>298</v>
+      </c>
+      <c r="B262">
+        <v>200052</v>
+      </c>
+      <c r="C262" t="str">
+        <v>赵星宇</v>
+      </c>
+      <c r="D262" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E262" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F262" t="str">
+        <v>杨晨</v>
+      </c>
+      <c r="H262" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I262" t="str">
+        <v>参加第一期，第三期</v>
+      </c>
+      <c r="J262" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>306</v>
+      </c>
+      <c r="B263">
+        <v>200093</v>
+      </c>
+      <c r="C263" t="str">
+        <v>周弯弯</v>
+      </c>
+      <c r="D263" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E263" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F263" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="H263" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>299</v>
+      </c>
+      <c r="B264">
+        <v>200162</v>
+      </c>
+      <c r="C264" t="str">
+        <v>高一航</v>
+      </c>
+      <c r="D264" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E264" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F264" t="str">
+        <v>杨晨</v>
+      </c>
+      <c r="H264" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I264" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>476</v>
+      </c>
+      <c r="B265">
+        <v>200220</v>
+      </c>
+      <c r="C265" t="str">
+        <v>董琛琛</v>
+      </c>
+      <c r="N265" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266">
+        <v>200287</v>
+      </c>
+      <c r="C266" t="str">
+        <v>李卫燃</v>
+      </c>
+      <c r="D266" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E266" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F266" t="str">
+        <v>田兰</v>
+      </c>
+      <c r="I266" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="K266" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="P266" t="str">
+        <v>微博广告12月定制</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267">
+        <v>200292</v>
+      </c>
+      <c r="C267" t="str">
+        <v>刘媚琪</v>
+      </c>
+      <c r="L267" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="M267" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>283</v>
+      </c>
+      <c r="B268">
+        <v>200398</v>
+      </c>
+      <c r="C268" t="str">
+        <v>戴浩浩</v>
+      </c>
+      <c r="D268" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E268" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F268" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="J268" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269">
+        <v>200497</v>
+      </c>
+      <c r="C269" t="str">
+        <v>高培峰</v>
+      </c>
+      <c r="L269" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="M269" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270">
+        <v>200621</v>
+      </c>
+      <c r="C270" t="str">
+        <v>晏幸好</v>
+      </c>
+      <c r="O270" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P270" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>346</v>
+      </c>
+      <c r="B271">
+        <v>200687</v>
+      </c>
+      <c r="C271" t="str">
+        <v>彭中睿</v>
+      </c>
+      <c r="L271" t="str">
+        <v>参加4月期</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>287</v>
+      </c>
+      <c r="B272">
+        <v>200689</v>
+      </c>
+      <c r="C272" t="str">
+        <v>刘琳</v>
+      </c>
+      <c r="D272" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E272" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F272" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="I272" t="str">
+        <v>三期都参加</v>
+      </c>
+      <c r="J272" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>132</v>
+      </c>
+      <c r="B273">
+        <v>200782</v>
+      </c>
+      <c r="C273" t="str">
+        <v>李鹏</v>
+      </c>
+      <c r="D273" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E273" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F273" t="str">
+        <v>陈慧盈</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>197</v>
+      </c>
+      <c r="B274">
+        <v>200839</v>
+      </c>
+      <c r="C274" t="str">
+        <v>王爱学</v>
+      </c>
+      <c r="D274" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E274" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F274" t="str">
+        <v>王婷婷</v>
+      </c>
+      <c r="G274" t="str">
+        <v>9月参加</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>318</v>
+      </c>
+      <c r="B275">
+        <v>200946</v>
+      </c>
+      <c r="C275" t="str">
+        <v>徐正</v>
+      </c>
+      <c r="D275" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E275" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F275" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="I275" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276">
+        <v>200948</v>
+      </c>
+      <c r="C276" t="str">
+        <v>王君珺</v>
+      </c>
+      <c r="O276" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P276" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>157</v>
+      </c>
+      <c r="B277">
+        <v>200956</v>
+      </c>
+      <c r="C277" t="str">
+        <v>刘荑瑟</v>
+      </c>
+      <c r="D277" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="E277" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F277" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="K277" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278">
+        <v>201008</v>
+      </c>
+      <c r="D278" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E278" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F278" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="H278" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="J278" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="M278" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>652</v>
+      </c>
+      <c r="B279">
+        <v>201054</v>
+      </c>
+      <c r="C279" t="str">
+        <v>张又升</v>
+      </c>
+      <c r="N279" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280">
+        <v>201080</v>
+      </c>
+      <c r="C280" t="str">
+        <v>潘淼</v>
+      </c>
+      <c r="N280" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P280" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>194</v>
+      </c>
+      <c r="B281">
+        <v>201191</v>
+      </c>
+      <c r="C281" t="str">
+        <v>薛园园</v>
+      </c>
+      <c r="D281" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E281" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F281" t="str">
+        <v>王婷婷</v>
+      </c>
+      <c r="K281" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>67</v>
+      </c>
+      <c r="B282">
+        <v>201332</v>
+      </c>
+      <c r="C282" t="str">
+        <v>孟健</v>
+      </c>
+      <c r="D282" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="E282" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F282" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="G282" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="H282" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="K282" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>386</v>
+      </c>
+      <c r="B283">
+        <v>201360</v>
+      </c>
+      <c r="C283" t="str">
+        <v>蒋玥</v>
+      </c>
+      <c r="L283" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>460</v>
+      </c>
+      <c r="B284">
+        <v>201403</v>
+      </c>
+      <c r="C284" t="str">
+        <v>曹文龙</v>
+      </c>
+      <c r="N284" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>317</v>
+      </c>
+      <c r="B285">
+        <v>201407</v>
+      </c>
+      <c r="C285" t="str">
+        <v>何海源</v>
+      </c>
+      <c r="D285" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E285" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F285" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="I285" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>614</v>
+      </c>
+      <c r="B286">
+        <v>201588</v>
+      </c>
+      <c r="C286" t="str">
+        <v>王金萍</v>
+      </c>
+      <c r="D286" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E286" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F286" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="G286" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="I286" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="P286" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q286" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287">
+        <v>201649</v>
+      </c>
+      <c r="C287" t="str">
+        <v>任宁馨</v>
+      </c>
+      <c r="N287" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P287" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>399</v>
+      </c>
+      <c r="B288">
+        <v>201654</v>
+      </c>
+      <c r="C288" t="str">
+        <v>袁丽</v>
+      </c>
+      <c r="L288" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>401</v>
+      </c>
+      <c r="B289">
+        <v>201669</v>
+      </c>
+      <c r="C289" t="str">
+        <v>张帆</v>
+      </c>
+      <c r="L289" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>201779</v>
+      </c>
+      <c r="C290" t="str">
+        <v>刘欢</v>
+      </c>
+      <c r="D290" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E290" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F290" t="str">
+        <v>熊筝</v>
+      </c>
+      <c r="I290" t="str">
+        <v>参加第一期, 参加第二期</v>
+      </c>
+      <c r="J290" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>274</v>
+      </c>
+      <c r="B291">
+        <v>201837</v>
+      </c>
+      <c r="C291" t="str">
+        <v>王潇潇</v>
+      </c>
+      <c r="D291" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E291" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F291" t="str">
+        <v>王婷婷</v>
+      </c>
+      <c r="K291" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>578</v>
+      </c>
+      <c r="B292">
+        <v>201886</v>
+      </c>
+      <c r="C292" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="P292" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>152</v>
+      </c>
+      <c r="B293">
+        <v>201924</v>
+      </c>
+      <c r="C293" t="str">
+        <v>刘奕然</v>
+      </c>
+      <c r="D293" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="E293" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F293" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="G293" t="str">
+        <v>9月参加</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>646</v>
+      </c>
+      <c r="B294">
+        <v>202010</v>
+      </c>
+      <c r="C294" t="str">
+        <v>那丽雅</v>
+      </c>
+      <c r="N294" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>325</v>
+      </c>
+      <c r="B295">
+        <v>202147</v>
+      </c>
+      <c r="C295" t="str">
+        <v>李江</v>
+      </c>
+      <c r="D295" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E295" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F295" t="str">
+        <v>杨志杰</v>
+      </c>
+      <c r="I295" t="str">
+        <v>参加第二期，第三期</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>566</v>
+      </c>
+      <c r="B296">
+        <v>202190</v>
+      </c>
+      <c r="C296" t="str">
+        <v>刘君</v>
+      </c>
+      <c r="P296" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>202191</v>
+      </c>
+      <c r="C297" t="str">
+        <v>杨旭</v>
+      </c>
+      <c r="D297" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E297" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F297" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="H297" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>658</v>
+      </c>
+      <c r="B298">
+        <v>202220</v>
+      </c>
+      <c r="C298" t="str">
+        <v>张志强</v>
+      </c>
+      <c r="P298" t="str">
+        <v>微博广告12月定制</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>445</v>
+      </c>
+      <c r="B299">
+        <v>202248</v>
+      </c>
+      <c r="C299" t="str">
+        <v>李朋辉</v>
+      </c>
+      <c r="M299" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>468</v>
+      </c>
+      <c r="B300">
+        <v>202269</v>
+      </c>
+      <c r="C300" t="str">
+        <v>韩宇星</v>
+      </c>
+      <c r="N300" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>549</v>
+      </c>
+      <c r="B301">
+        <v>202270</v>
+      </c>
+      <c r="C301" t="str">
+        <v>何再东</v>
+      </c>
+      <c r="D301" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="E301" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F301" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="K301" t="str">
+        <v>参加第二期</v>
+      </c>
+      <c r="O301" t="str">
+        <v>参加11月期</v>
+      </c>
+      <c r="P301" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302">
+        <v>202418</v>
+      </c>
+      <c r="C302" t="str">
+        <v>韩琳</v>
+      </c>
+      <c r="M302" t="str">
+        <v>参加4月期</v>
+      </c>
+      <c r="N302" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O302" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="Q302" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>292</v>
+      </c>
+      <c r="B303">
+        <v>202533</v>
+      </c>
+      <c r="C303" t="str">
+        <v>田苗</v>
+      </c>
+      <c r="D303" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E303" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F303" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="H303" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>518</v>
+      </c>
+      <c r="B304">
+        <v>202587</v>
+      </c>
+      <c r="C304" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="O304" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>202733</v>
+      </c>
+      <c r="C305" t="str">
+        <v>孙亚超</v>
+      </c>
+      <c r="D305" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E305" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F305" t="str">
+        <v>陈慧盈</v>
+      </c>
+      <c r="H305" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>282</v>
+      </c>
+      <c r="B306">
+        <v>202746</v>
+      </c>
+      <c r="C306" t="str">
+        <v>孙鹏志</v>
+      </c>
+      <c r="D306" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E306" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F306" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="I306" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="J306" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>296</v>
+      </c>
+      <c r="B307">
+        <v>202788</v>
+      </c>
+      <c r="C307" t="str">
+        <v>高峰</v>
+      </c>
+      <c r="D307" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E307" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F307" t="str">
+        <v>王黎</v>
+      </c>
+      <c r="H307" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308">
+        <v>202863</v>
+      </c>
+      <c r="C308" t="str">
+        <v>张冬洪</v>
+      </c>
+      <c r="M308" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="O308" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>647</v>
+      </c>
+      <c r="B309">
+        <v>202895</v>
+      </c>
+      <c r="C309" t="str">
+        <v>贺遥望</v>
+      </c>
+      <c r="N309" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>393</v>
+      </c>
+      <c r="B310">
+        <v>202917</v>
+      </c>
+      <c r="C310" t="str">
+        <v>宋漪晨</v>
+      </c>
+      <c r="L310" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>344</v>
+      </c>
+      <c r="B311">
+        <v>202936</v>
+      </c>
+      <c r="C311" t="str">
+        <v>马超</v>
+      </c>
+      <c r="L311" t="str">
+        <v>参加4月期</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>293</v>
+      </c>
+      <c r="B312">
+        <v>202948</v>
+      </c>
+      <c r="C312" t="str">
+        <v>章彩虹</v>
+      </c>
+      <c r="D312" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E312" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F312" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="H312" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>167</v>
+      </c>
+      <c r="B313">
+        <v>203029</v>
+      </c>
+      <c r="C313" t="str">
+        <v>王海洋</v>
+      </c>
+      <c r="D313" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="E313" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F313" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="H313" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="K313" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>525</v>
+      </c>
+      <c r="B314">
+        <v>203055</v>
+      </c>
+      <c r="C314" t="str">
+        <v>管永刚</v>
+      </c>
+      <c r="D314" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E314" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F314" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="G314" t="str">
+        <v>9月参加</v>
+      </c>
+      <c r="L314" t="str">
+        <v>参加6月期</v>
+      </c>
+      <c r="O314" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>203066</v>
+      </c>
+      <c r="C315" t="str">
+        <v>李左琳</v>
+      </c>
+      <c r="D315" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E315" t="str">
+        <v>陈燕</v>
+      </c>
+      <c r="F315" t="str">
+        <v>刘亚琼</v>
+      </c>
+      <c r="I315" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>450</v>
+      </c>
+      <c r="B316">
+        <v>203149</v>
+      </c>
+      <c r="C316" t="str">
+        <v>张燕</v>
+      </c>
+      <c r="M316" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>656</v>
+      </c>
+      <c r="B317">
+        <v>203208</v>
+      </c>
+      <c r="C317" t="str">
+        <v>司洋</v>
+      </c>
+      <c r="P317" t="str">
+        <v>微博广告12月定制</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>648</v>
+      </c>
+      <c r="B318">
+        <v>203366</v>
+      </c>
+      <c r="C318" t="str">
+        <v>包宇</v>
+      </c>
+      <c r="N318" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>341</v>
+      </c>
+      <c r="B319">
+        <v>203550</v>
+      </c>
+      <c r="C319" t="str">
+        <v>梁玮殷</v>
+      </c>
+      <c r="L319" t="str">
+        <v>参加4月期</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>284</v>
+      </c>
+      <c r="B320">
+        <v>203678</v>
+      </c>
+      <c r="C320" t="str">
+        <v>穆飞虎</v>
+      </c>
+      <c r="D320" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E320" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F320" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="J320" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>649</v>
+      </c>
+      <c r="B321">
+        <v>203771</v>
+      </c>
+      <c r="C321" t="str">
+        <v>王源源</v>
+      </c>
+      <c r="N321" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>278</v>
+      </c>
+      <c r="B322">
+        <v>203964</v>
+      </c>
+      <c r="C322" t="str">
+        <v>郑洋洋</v>
+      </c>
+      <c r="D322" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E322" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F322" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="H322" t="str">
+        <v>11月参加</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>650</v>
+      </c>
+      <c r="B323">
+        <v>204854</v>
+      </c>
+      <c r="C323" t="str">
+        <v>魏嘉</v>
+      </c>
+      <c r="N323" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>30</v>
+      </c>
+      <c r="B324">
+        <v>205138</v>
+      </c>
+      <c r="C324" t="str">
+        <v>郝易岩</v>
+      </c>
+      <c r="D324" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E324" t="str">
+        <v>吴薇</v>
+      </c>
+      <c r="F324" t="str">
+        <v>杨建国</v>
+      </c>
+      <c r="H324" t="str">
+        <v>8月参加</v>
+      </c>
+      <c r="J324" t="str">
+        <v>6月参加</v>
+      </c>
+      <c r="K324" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>275</v>
+      </c>
+      <c r="B325">
+        <v>205258</v>
+      </c>
+      <c r="C325" t="str">
+        <v>张童</v>
+      </c>
+      <c r="D325" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E325" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F325" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="K325" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>550</v>
+      </c>
+      <c r="B326">
+        <v>205579</v>
+      </c>
+      <c r="C326" t="str">
+        <v>和冰</v>
+      </c>
+      <c r="P326" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>362</v>
+      </c>
+      <c r="B327">
+        <v>205653</v>
+      </c>
+      <c r="C327" t="str">
+        <v>徐静</v>
+      </c>
+      <c r="L327" t="str">
+        <v>参加4月期</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>532</v>
+      </c>
+      <c r="B328">
+        <v>206046</v>
+      </c>
+      <c r="C328" t="str">
+        <v>王友韦</v>
+      </c>
+      <c r="O328" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>666</v>
+      </c>
+      <c r="B329">
+        <v>206069</v>
+      </c>
+      <c r="C329" t="str">
+        <v>吴歆</v>
+      </c>
+      <c r="P329" t="str">
+        <v>微博广告12月定制</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>310</v>
+      </c>
+      <c r="B330">
+        <v>206285</v>
+      </c>
+      <c r="C330" t="str">
+        <v>张雪娇</v>
+      </c>
+      <c r="D330" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E330" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F330" t="str">
+        <v>田兰</v>
+      </c>
+      <c r="I330" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331">
+        <v>206580</v>
+      </c>
+      <c r="C331" t="str">
+        <v>赵寒漪</v>
+      </c>
+      <c r="O331" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P331" t="str">
+        <v>参加11月期</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>653</v>
+      </c>
+      <c r="B332">
+        <v>206780</v>
+      </c>
+      <c r="C332" t="str">
+        <v>钟泽兴</v>
+      </c>
+      <c r="N332" t="str">
+        <v>渠道7月定制</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>234</v>
+      </c>
+      <c r="B333">
+        <v>206832</v>
+      </c>
+      <c r="C333" t="str">
+        <v>翟暾</v>
+      </c>
+      <c r="D333" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E333" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F333" t="str">
+        <v>杨晨</v>
+      </c>
+      <c r="K333" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>453</v>
+      </c>
+      <c r="B334">
+        <v>207661</v>
+      </c>
+      <c r="C334" t="str">
+        <v>黄水梅</v>
+      </c>
+      <c r="M334" t="str">
+        <v>参加8月期</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335">
+        <v>207757</v>
+      </c>
+      <c r="C335" t="str">
+        <v>周海旭</v>
+      </c>
+      <c r="D335" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E335" t="str">
+        <v>王丹</v>
+      </c>
+      <c r="F335" t="str">
+        <v>杨晨</v>
+      </c>
+      <c r="J335" t="str">
+        <v>12月参加</v>
+      </c>
+      <c r="K335" t="str">
+        <v>参加第一期</v>
+      </c>
+      <c r="M335" t="str">
+        <v>参加8月期</v>
+      </c>
+      <c r="P335" t="str">
+        <v>参加12月期</v>
+      </c>
+      <c r="Q335" t="str">
+        <v>参加12月期</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>307</v>
+      </c>
+      <c r="B336">
+        <v>208101</v>
+      </c>
+      <c r="C336" t="str">
+        <v>董雪</v>
+      </c>
+      <c r="D336" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="E336" t="str">
+        <v>吴翠翠</v>
+      </c>
+      <c r="F336" t="str">
+        <v>洪勤慧</v>
+      </c>
+      <c r="H336" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I336" t="str">
+        <v>参加第一期, 参加第二期</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>260</v>
+      </c>
+      <c r="B337">
+        <v>208418</v>
+      </c>
+      <c r="C337" t="str">
+        <v>卢亚平</v>
+      </c>
+      <c r="D337" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E337" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F337" t="str">
+        <v>王婷婷</v>
+      </c>
+      <c r="J337" t="str">
+        <v>6月参加</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>281</v>
+      </c>
+      <c r="B338">
+        <v>208681</v>
+      </c>
+      <c r="C338" t="str">
+        <v>陈亚波</v>
+      </c>
+      <c r="D338" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E338" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F338" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="J338" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>297</v>
+      </c>
+      <c r="B339">
+        <v>208713</v>
+      </c>
+      <c r="C339" t="str">
+        <v>刘岩</v>
+      </c>
+      <c r="D339" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E339" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F339" t="str">
+        <v>田兰</v>
+      </c>
+      <c r="H339" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I339" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>276</v>
+      </c>
+      <c r="B340">
+        <v>208796</v>
+      </c>
+      <c r="C340" t="str">
+        <v>于茜</v>
+      </c>
+      <c r="D340" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E340" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="F340" t="str">
+        <v>李腾</v>
+      </c>
+      <c r="K340" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>224</v>
+      </c>
+      <c r="B341">
+        <v>208875</v>
+      </c>
+      <c r="C341" t="str">
+        <v>靳昕</v>
+      </c>
+      <c r="D341" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="E341" t="str">
+        <v>乔乔</v>
+      </c>
+      <c r="F341" t="str">
+        <v>王颖</v>
+      </c>
+      <c r="J341" t="str">
+        <v>12月参加</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>259</v>
+      </c>
+      <c r="B342">
+        <v>209424</v>
+      </c>
+      <c r="C342" t="str">
+        <v>郭玥</v>
+      </c>
+      <c r="D342" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E342" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F342" t="str">
+        <v>王婷婷</v>
+      </c>
+      <c r="J342" t="str">
+        <v>6月参加</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>324</v>
+      </c>
+      <c r="B343">
+        <v>209545</v>
+      </c>
+      <c r="C343" t="str">
+        <v>孟美鑫</v>
+      </c>
+      <c r="D343" t="str">
+        <v>张珏</v>
+      </c>
+      <c r="E343" t="str">
+        <v>辛雯</v>
+      </c>
+      <c r="F343" t="str">
+        <v>文宁宁</v>
+      </c>
+      <c r="I343" t="str">
+        <v>参加第一期</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>294</v>
+      </c>
+      <c r="B344">
+        <v>211724</v>
+      </c>
+      <c r="C344" t="str">
+        <v>李柳娜</v>
+      </c>
+      <c r="D344" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="E344" t="str">
+        <v>花伟</v>
+      </c>
+      <c r="F344" t="str">
+        <v>梅杰</v>
+      </c>
+      <c r="H344" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="I344" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>272</v>
+      </c>
+      <c r="B345">
+        <v>212041</v>
+      </c>
+      <c r="C345" t="str">
+        <v>解泽宇</v>
+      </c>
+      <c r="D345" t="str">
+        <v>于敏</v>
+      </c>
+      <c r="E345" t="str">
+        <v>王鹏</v>
+      </c>
+      <c r="F345" t="str">
+        <v>王婷婷</v>
+      </c>
+      <c r="H345" t="str">
+        <v>11月参加</v>
+      </c>
+      <c r="K345" t="str">
+        <v>参加第二期</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>268</v>
+      </c>
+      <c r="C346" t="str">
+        <v>周和</v>
+      </c>
+      <c r="K346" t="str">
+        <v>参加第二期</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D224"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q346"/>
   </ignoredErrors>
 </worksheet>
 </file>